--- a/Relatorio/Relatorio_InternoVsExterno.xlsx
+++ b/Relatorio/Relatorio_InternoVsExterno.xlsx
@@ -9,14 +9,20 @@
   <sheets>
     <sheet name="Dados" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Informações" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Junção" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Junção1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Dados!$A$1:$J$9</definedName>
+    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">Junção!$A$1:$E$9</definedName>
+    <definedName hidden="1" localSheetId="3" name="_xlnm._FilterDatabase">Junção1!$A$1:$E$9</definedName>
+  </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="436">
   <si>
     <t>Solicitações</t>
   </si>
@@ -345,7 +351,928 @@
     <t>Armadilha para Mosca</t>
   </si>
   <si>
-    <t>Geral</t>
+    <t>253346</t>
+  </si>
+  <si>
+    <t>253345</t>
+  </si>
+  <si>
+    <t>jefferson.elebraselevadores</t>
+  </si>
+  <si>
+    <t>Elevador de Carga</t>
+  </si>
+  <si>
+    <t>253324</t>
+  </si>
+  <si>
+    <t>Ilha de Congelados do Açougue</t>
+  </si>
+  <si>
+    <t>253319</t>
+  </si>
+  <si>
+    <t>253317</t>
+  </si>
+  <si>
+    <t>253312</t>
+  </si>
+  <si>
+    <t>253303</t>
+  </si>
+  <si>
+    <t>Resinite</t>
+  </si>
+  <si>
+    <t>253294</t>
+  </si>
+  <si>
+    <t>Valcleide Silva - Oficial São Mateus</t>
+  </si>
+  <si>
+    <t>253290</t>
+  </si>
+  <si>
+    <t>253289</t>
+  </si>
+  <si>
+    <t>marcelo.silva</t>
+  </si>
+  <si>
+    <t>Iluminação</t>
+  </si>
+  <si>
+    <t>013:21</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>253278</t>
+  </si>
+  <si>
+    <t>253277</t>
+  </si>
+  <si>
+    <t>253276</t>
+  </si>
+  <si>
+    <t>253216</t>
+  </si>
+  <si>
+    <t>05/12/2018</t>
+  </si>
+  <si>
+    <t>253214</t>
+  </si>
+  <si>
+    <t>Eletrix Automação</t>
+  </si>
+  <si>
+    <t>Motor</t>
+  </si>
+  <si>
+    <t>253213</t>
+  </si>
+  <si>
+    <t>Trava eletromagnética</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>253208</t>
+  </si>
+  <si>
+    <t>Romildo Carvalho – Oficial</t>
+  </si>
+  <si>
+    <t>253201</t>
+  </si>
+  <si>
+    <t>Suporte de Balança</t>
+  </si>
+  <si>
+    <t>253198</t>
+  </si>
+  <si>
+    <t>Balcão de Margarina</t>
+  </si>
+  <si>
+    <t>253178</t>
+  </si>
+  <si>
+    <t>Vidraçaria Vidral</t>
+  </si>
+  <si>
+    <t>Porta de Balcão ( Trilho e Acabamentos)</t>
+  </si>
+  <si>
+    <t>253176</t>
+  </si>
+  <si>
+    <t>Pia</t>
+  </si>
+  <si>
+    <t>253175</t>
+  </si>
+  <si>
+    <t>Cadeira</t>
+  </si>
+  <si>
+    <t>160:00</t>
+  </si>
+  <si>
+    <t>253166</t>
+  </si>
+  <si>
+    <t>253164</t>
+  </si>
+  <si>
+    <t>Cortador de legumes</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>253161</t>
+  </si>
+  <si>
+    <t>253159</t>
+  </si>
+  <si>
+    <t>Tomadas</t>
+  </si>
+  <si>
+    <t>253154</t>
+  </si>
+  <si>
+    <t>Acrílico</t>
+  </si>
+  <si>
+    <t>253152</t>
+  </si>
+  <si>
+    <t>Armário de Colaboradores</t>
+  </si>
+  <si>
+    <t>253138</t>
+  </si>
+  <si>
+    <t>Extil</t>
+  </si>
+  <si>
+    <t>Paleteira</t>
+  </si>
+  <si>
+    <t>253135</t>
+  </si>
+  <si>
+    <t>ubirajara.silva</t>
+  </si>
+  <si>
+    <t>017:30</t>
+  </si>
+  <si>
+    <t>253131</t>
+  </si>
+  <si>
+    <t>Sandro Geraldino - Oficial Colatina</t>
+  </si>
+  <si>
+    <t>Estrutura</t>
+  </si>
+  <si>
+    <t>018:04</t>
+  </si>
+  <si>
+    <t>253125</t>
+  </si>
+  <si>
+    <t>Esgoto</t>
+  </si>
+  <si>
+    <t>253120</t>
+  </si>
+  <si>
+    <t>Bebedouro (Não Gela)</t>
+  </si>
+  <si>
+    <t>010:31</t>
+  </si>
+  <si>
+    <t>253115</t>
+  </si>
+  <si>
+    <t>Serra Fita</t>
+  </si>
+  <si>
+    <t>001:57</t>
+  </si>
+  <si>
+    <t>253102</t>
+  </si>
+  <si>
+    <t>Daniel Ferreira - Oficial</t>
+  </si>
+  <si>
+    <t>253099</t>
+  </si>
+  <si>
+    <t>Porta ( Madeira e Eucatex)</t>
+  </si>
+  <si>
+    <t>021:07</t>
+  </si>
+  <si>
+    <t>253097</t>
+  </si>
+  <si>
+    <t>253071</t>
+  </si>
+  <si>
+    <t>002:15</t>
+  </si>
+  <si>
+    <t>253060</t>
+  </si>
+  <si>
+    <t>Armário de Limpeza</t>
+  </si>
+  <si>
+    <t>253056</t>
+  </si>
+  <si>
+    <t>000:46</t>
+  </si>
+  <si>
+    <t>253052</t>
+  </si>
+  <si>
+    <t>007:23</t>
+  </si>
+  <si>
+    <t>253050</t>
+  </si>
+  <si>
+    <t>ms.deamorim</t>
+  </si>
+  <si>
+    <t>Máquina de Sorvete</t>
+  </si>
+  <si>
+    <t>253042</t>
+  </si>
+  <si>
+    <t>Maq Clean Com. de Maquinas Equip. e a Aces</t>
+  </si>
+  <si>
+    <t>253013</t>
+  </si>
+  <si>
+    <t>253012</t>
+  </si>
+  <si>
+    <t>253011</t>
+  </si>
+  <si>
+    <t>Check-out</t>
+  </si>
+  <si>
+    <t>253010</t>
+  </si>
+  <si>
+    <t>252990</t>
+  </si>
+  <si>
+    <t>Scan-top/ queimador</t>
+  </si>
+  <si>
+    <t>000:30</t>
+  </si>
+  <si>
+    <t>252969</t>
+  </si>
+  <si>
+    <t>Ralo ( Troca)</t>
+  </si>
+  <si>
+    <t>252964</t>
+  </si>
+  <si>
+    <t>Prateleira</t>
+  </si>
+  <si>
+    <t>120:00</t>
+  </si>
+  <si>
+    <t>252960</t>
+  </si>
+  <si>
+    <t>252914</t>
+  </si>
+  <si>
+    <t>252894</t>
+  </si>
+  <si>
+    <t>252878</t>
+  </si>
+  <si>
+    <t>Marcos Aurélio - São Mateus</t>
+  </si>
+  <si>
+    <t>Bandeja de balcão frio</t>
+  </si>
+  <si>
+    <t>252877</t>
+  </si>
+  <si>
+    <t>Instalação Elétrica</t>
+  </si>
+  <si>
+    <t>252840</t>
+  </si>
+  <si>
+    <t>Porta de Câmaras Frigorificas ( Sistema de Abrir e Fechar)</t>
+  </si>
+  <si>
+    <t>252836</t>
+  </si>
+  <si>
+    <t>252832</t>
+  </si>
+  <si>
+    <t>252829</t>
+  </si>
+  <si>
+    <t>252816</t>
+  </si>
+  <si>
+    <t>Câmara de Congelados de Carnes</t>
+  </si>
+  <si>
+    <t>022:45</t>
+  </si>
+  <si>
+    <t>252813</t>
+  </si>
+  <si>
+    <t>007:41</t>
+  </si>
+  <si>
+    <t>252807</t>
+  </si>
+  <si>
+    <t>M Denadai</t>
+  </si>
+  <si>
+    <t>252802</t>
+  </si>
+  <si>
+    <t>AAR Serviços</t>
+  </si>
+  <si>
+    <t>252784</t>
+  </si>
+  <si>
+    <t>252782</t>
+  </si>
+  <si>
+    <t>252777</t>
+  </si>
+  <si>
+    <t>252770</t>
+  </si>
+  <si>
+    <t>Forçador/Evaporador</t>
+  </si>
+  <si>
+    <t>252764</t>
+  </si>
+  <si>
+    <t>252761</t>
+  </si>
+  <si>
+    <t>Mesa de doces e Salgados</t>
+  </si>
+  <si>
+    <t>252758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balcão de Cortes Especiais </t>
+  </si>
+  <si>
+    <t>016:55</t>
+  </si>
+  <si>
+    <t>252757</t>
+  </si>
+  <si>
+    <t>018:40</t>
+  </si>
+  <si>
+    <t>252713</t>
+  </si>
+  <si>
+    <t>04/12/2018</t>
+  </si>
+  <si>
+    <t>252692</t>
+  </si>
+  <si>
+    <t>016:19</t>
+  </si>
+  <si>
+    <t>252687</t>
+  </si>
+  <si>
+    <t>252685</t>
+  </si>
+  <si>
+    <t>032:10</t>
+  </si>
+  <si>
+    <t>252659</t>
+  </si>
+  <si>
+    <t>252656</t>
+  </si>
+  <si>
+    <t>252653</t>
+  </si>
+  <si>
+    <t>Carro Prancha</t>
+  </si>
+  <si>
+    <t>252652</t>
+  </si>
+  <si>
+    <t>Carro Cuba</t>
+  </si>
+  <si>
+    <t>252646</t>
+  </si>
+  <si>
+    <t>252645</t>
+  </si>
+  <si>
+    <t>Radier Serviços</t>
+  </si>
+  <si>
+    <t>252644</t>
+  </si>
+  <si>
+    <t>Câmara de Congelados (Sorvete)</t>
+  </si>
+  <si>
+    <t>032:21</t>
+  </si>
+  <si>
+    <t>252633</t>
+  </si>
+  <si>
+    <t>Carro de Cliente</t>
+  </si>
+  <si>
+    <t>252618</t>
+  </si>
+  <si>
+    <t>252596</t>
+  </si>
+  <si>
+    <t>Ilha de Congelados</t>
+  </si>
+  <si>
+    <t>033:15</t>
+  </si>
+  <si>
+    <t>252573</t>
+  </si>
+  <si>
+    <t>Solda</t>
+  </si>
+  <si>
+    <t>252572</t>
+  </si>
+  <si>
+    <t>Serralheria Almeida</t>
+  </si>
+  <si>
+    <t>252549</t>
+  </si>
+  <si>
+    <t>Mesa</t>
+  </si>
+  <si>
+    <t>252548</t>
+  </si>
+  <si>
+    <t>Vaso Sanitário</t>
+  </si>
+  <si>
+    <t>023:03</t>
+  </si>
+  <si>
+    <t>252547</t>
+  </si>
+  <si>
+    <t>Prensa de papelão ( Talha)</t>
+  </si>
+  <si>
+    <t>036:46</t>
+  </si>
+  <si>
+    <t>252546</t>
+  </si>
+  <si>
+    <t>Escada de aço</t>
+  </si>
+  <si>
+    <t>026:54</t>
+  </si>
+  <si>
+    <t>252544</t>
+  </si>
+  <si>
+    <t>252534</t>
+  </si>
+  <si>
+    <t>252531</t>
+  </si>
+  <si>
+    <t>252530</t>
+  </si>
+  <si>
+    <t>252528</t>
+  </si>
+  <si>
+    <t>252524</t>
+  </si>
+  <si>
+    <t>252443</t>
+  </si>
+  <si>
+    <t>252436</t>
+  </si>
+  <si>
+    <t>252393</t>
+  </si>
+  <si>
+    <t>252391</t>
+  </si>
+  <si>
+    <t>000:25</t>
+  </si>
+  <si>
+    <t>252383</t>
+  </si>
+  <si>
+    <t>Aguardando Faturamento</t>
+  </si>
+  <si>
+    <t>carlos.simoes</t>
+  </si>
+  <si>
+    <t>016:42</t>
+  </si>
+  <si>
+    <t>252361</t>
+  </si>
+  <si>
+    <t>004:46</t>
+  </si>
+  <si>
+    <t>252349</t>
+  </si>
+  <si>
+    <t>Geladeira da Padaria</t>
+  </si>
+  <si>
+    <t>252340</t>
+  </si>
+  <si>
+    <t>Polyvac</t>
+  </si>
+  <si>
+    <t>Máquina a Vácuo</t>
+  </si>
+  <si>
+    <t>252335</t>
+  </si>
+  <si>
+    <t>015:28</t>
+  </si>
+  <si>
+    <t>252328</t>
+  </si>
+  <si>
+    <t>001:47</t>
+  </si>
+  <si>
+    <t>252325</t>
+  </si>
+  <si>
+    <t>252324</t>
+  </si>
+  <si>
+    <t>Ventilador</t>
+  </si>
+  <si>
+    <t>252320</t>
+  </si>
+  <si>
+    <t>Balcão de frente de loja</t>
+  </si>
+  <si>
+    <t>252318</t>
+  </si>
+  <si>
+    <t>252313</t>
+  </si>
+  <si>
+    <t>000:06</t>
+  </si>
+  <si>
+    <t>252312</t>
+  </si>
+  <si>
+    <t>252310</t>
+  </si>
+  <si>
+    <t>Control System</t>
+  </si>
+  <si>
+    <t>Baterias (Nobreak)</t>
+  </si>
+  <si>
+    <t>252306</t>
+  </si>
+  <si>
+    <t>005:49</t>
+  </si>
+  <si>
+    <t>252304</t>
+  </si>
+  <si>
+    <t>Fatiador de Frios</t>
+  </si>
+  <si>
+    <t>252302</t>
+  </si>
+  <si>
+    <t>252298</t>
+  </si>
+  <si>
+    <t>fernando.rochaextrabom.com.br</t>
+  </si>
+  <si>
+    <t>Balcão de Embutidos</t>
+  </si>
+  <si>
+    <t>252290</t>
+  </si>
+  <si>
+    <t>03/12/2018</t>
+  </si>
+  <si>
+    <t>252281</t>
+  </si>
+  <si>
+    <t>252255</t>
+  </si>
+  <si>
+    <t>252219</t>
+  </si>
+  <si>
+    <t>Serralheria Soares</t>
+  </si>
+  <si>
+    <t>252193</t>
+  </si>
+  <si>
+    <t>Ralo ( Fabricação)</t>
+  </si>
+  <si>
+    <t>252187</t>
+  </si>
+  <si>
+    <t>252180</t>
+  </si>
+  <si>
+    <t>Forno Turbo</t>
+  </si>
+  <si>
+    <t>252159</t>
+  </si>
+  <si>
+    <t>Carro Gaiola ( Aço)</t>
+  </si>
+  <si>
+    <t>252158</t>
+  </si>
+  <si>
+    <t>Zinco Prestadora de Serviços Ltda-me</t>
+  </si>
+  <si>
+    <t>252156</t>
+  </si>
+  <si>
+    <t>252153</t>
+  </si>
+  <si>
+    <t>052:29</t>
+  </si>
+  <si>
+    <t>252105</t>
+  </si>
+  <si>
+    <t>252087</t>
+  </si>
+  <si>
+    <t>023:48</t>
+  </si>
+  <si>
+    <t>252067</t>
+  </si>
+  <si>
+    <t>252057</t>
+  </si>
+  <si>
+    <t>037:29</t>
+  </si>
+  <si>
+    <t>252054</t>
+  </si>
+  <si>
+    <t>Sala de Máquinas</t>
+  </si>
+  <si>
+    <t>049:16</t>
+  </si>
+  <si>
+    <t>252010</t>
+  </si>
+  <si>
+    <t>039:03</t>
+  </si>
+  <si>
+    <t>252000</t>
+  </si>
+  <si>
+    <t>251996</t>
+  </si>
+  <si>
+    <t>Vidro de Esquadrias e Divisórias</t>
+  </si>
+  <si>
+    <t>251989</t>
+  </si>
+  <si>
+    <t>251916</t>
+  </si>
+  <si>
+    <t>CA Manutenção</t>
+  </si>
+  <si>
+    <t>Fogão</t>
+  </si>
+  <si>
+    <t>251910</t>
+  </si>
+  <si>
+    <t>Coifa</t>
+  </si>
+  <si>
+    <t>048:45</t>
+  </si>
+  <si>
+    <t>251906</t>
+  </si>
+  <si>
+    <t>021:22</t>
+  </si>
+  <si>
+    <t>251903</t>
+  </si>
+  <si>
+    <t>020:06</t>
+  </si>
+  <si>
+    <t>251895</t>
+  </si>
+  <si>
+    <t>004:33</t>
+  </si>
+  <si>
+    <t>251894</t>
+  </si>
+  <si>
+    <t>Troca de forro</t>
+  </si>
+  <si>
+    <t>055:45</t>
+  </si>
+  <si>
+    <t>251886</t>
+  </si>
+  <si>
+    <t>SS Divisórias</t>
+  </si>
+  <si>
+    <t>251854</t>
+  </si>
+  <si>
+    <t>006:01</t>
+  </si>
+  <si>
+    <t>251849</t>
+  </si>
+  <si>
+    <t>Serralheria Pratica</t>
+  </si>
+  <si>
+    <t>Portão</t>
+  </si>
+  <si>
+    <t>251737</t>
+  </si>
+  <si>
+    <t>Freezer</t>
+  </si>
+  <si>
+    <t>251727</t>
+  </si>
+  <si>
+    <t>251718</t>
+  </si>
+  <si>
+    <t>251715</t>
+  </si>
+  <si>
+    <t>251712</t>
+  </si>
+  <si>
+    <t>020:14</t>
+  </si>
+  <si>
+    <t>251706</t>
+  </si>
+  <si>
+    <t>251702</t>
+  </si>
+  <si>
+    <t>251635</t>
+  </si>
+  <si>
+    <t>02/12/2018</t>
+  </si>
+  <si>
+    <t>Suporte de Senha</t>
+  </si>
+  <si>
+    <t>022:52</t>
+  </si>
+  <si>
+    <t>251632</t>
+  </si>
+  <si>
+    <t>LR Manutenção</t>
+  </si>
+  <si>
+    <t>Falta de Energia</t>
+  </si>
+  <si>
+    <t>251430</t>
+  </si>
+  <si>
+    <t>01/12/2018</t>
+  </si>
+  <si>
+    <t>055:54</t>
+  </si>
+  <si>
+    <t>251352</t>
+  </si>
+  <si>
+    <t>Bebedouro ( Troca de torneira)</t>
+  </si>
+  <si>
+    <t>001:30</t>
+  </si>
+  <si>
+    <t>251345</t>
+  </si>
+  <si>
+    <t>Painel de Senha</t>
+  </si>
+  <si>
+    <t>055:48</t>
+  </si>
+  <si>
+    <t>251224</t>
+  </si>
+  <si>
+    <t>Batedeira</t>
   </si>
   <si>
     <t xml:space="preserve">Total </t>
@@ -372,7 +1299,37 @@
     <t>Canceladas</t>
   </si>
   <si>
-    <t>3 %</t>
+    <t>24 %</t>
+  </si>
+  <si>
+    <t>Total de chamados</t>
+  </si>
+  <si>
+    <t>Dentro do prazo</t>
+  </si>
+  <si>
+    <t>Porcetagem</t>
+  </si>
+  <si>
+    <t>Fora do prazo</t>
+  </si>
+  <si>
+    <t>11 %</t>
+  </si>
+  <si>
+    <t>88 %</t>
+  </si>
+  <si>
+    <t>75 %</t>
+  </si>
+  <si>
+    <t>100 %</t>
+  </si>
+  <si>
+    <t>50 %</t>
+  </si>
+  <si>
+    <t>33 %</t>
   </si>
 </sst>
 </file>
@@ -401,14 +1358,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00e2fe13"/>
-        <bgColor rgb="00e2c813"/>
+        <fgColor rgb="00010204"/>
+        <bgColor rgb="00010204"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00010204"/>
-        <bgColor rgb="00010204"/>
+        <fgColor rgb="00e2fe13"/>
+        <bgColor rgb="00e2c813"/>
       </patternFill>
     </fill>
   </fills>
@@ -431,13 +1388,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -735,43 +1693,55 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="12"/>
+    <col customWidth="1" max="2" min="2" width="9"/>
+    <col customWidth="1" max="3" min="3" width="26"/>
+    <col customWidth="1" max="4" min="4" width="42"/>
+    <col customWidth="1" max="5" min="5" width="10"/>
+    <col customWidth="1" max="6" min="6" width="3"/>
+    <col customWidth="1" max="7" min="7" width="58"/>
+    <col customWidth="1" max="8" min="8" width="6"/>
+    <col customWidth="1" max="9" min="9" width="13"/>
+    <col customWidth="1" max="10" min="10" width="16"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -791,7 +1761,6 @@
       <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s"/>
       <c r="G2" t="s">
         <v>15</v>
       </c>
@@ -821,7 +1790,6 @@
       <c r="E3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s"/>
       <c r="G3" t="s">
         <v>21</v>
       </c>
@@ -851,7 +1819,6 @@
       <c r="E4" t="s">
         <v>20</v>
       </c>
-      <c r="F4" t="s"/>
       <c r="G4" t="s">
         <v>23</v>
       </c>
@@ -881,7 +1848,6 @@
       <c r="E5" t="s">
         <v>20</v>
       </c>
-      <c r="F5" t="s"/>
       <c r="G5" t="s">
         <v>28</v>
       </c>
@@ -911,7 +1877,6 @@
       <c r="E6" t="s">
         <v>20</v>
       </c>
-      <c r="F6" t="s"/>
       <c r="G6" t="s">
         <v>31</v>
       </c>
@@ -941,7 +1906,6 @@
       <c r="E7" t="s">
         <v>20</v>
       </c>
-      <c r="F7" t="s"/>
       <c r="G7" t="s">
         <v>33</v>
       </c>
@@ -971,7 +1935,6 @@
       <c r="E8" t="s">
         <v>20</v>
       </c>
-      <c r="F8" t="s"/>
       <c r="G8" t="s">
         <v>36</v>
       </c>
@@ -1001,7 +1964,6 @@
       <c r="E9" t="s">
         <v>20</v>
       </c>
-      <c r="F9" t="s"/>
       <c r="G9" t="s">
         <v>39</v>
       </c>
@@ -1031,7 +1993,6 @@
       <c r="E10" t="s">
         <v>20</v>
       </c>
-      <c r="F10" t="s"/>
       <c r="G10" t="s">
         <v>41</v>
       </c>
@@ -1061,7 +2022,6 @@
       <c r="E11" t="s">
         <v>20</v>
       </c>
-      <c r="F11" t="s"/>
       <c r="G11" t="s">
         <v>43</v>
       </c>
@@ -1091,7 +2051,6 @@
       <c r="E12" t="s">
         <v>20</v>
       </c>
-      <c r="F12" t="s"/>
       <c r="G12" t="s">
         <v>46</v>
       </c>
@@ -1121,7 +2080,6 @@
       <c r="E13" t="s">
         <v>20</v>
       </c>
-      <c r="F13" t="s"/>
       <c r="G13" t="s">
         <v>23</v>
       </c>
@@ -1151,7 +2109,6 @@
       <c r="E14" t="s">
         <v>20</v>
       </c>
-      <c r="F14" t="s"/>
       <c r="G14" t="s">
         <v>50</v>
       </c>
@@ -1181,7 +2138,6 @@
       <c r="E15" t="s">
         <v>20</v>
       </c>
-      <c r="F15" t="s"/>
       <c r="G15" t="s">
         <v>54</v>
       </c>
@@ -1211,7 +2167,6 @@
       <c r="E16" t="s">
         <v>20</v>
       </c>
-      <c r="F16" t="s"/>
       <c r="G16" t="s">
         <v>28</v>
       </c>
@@ -1241,7 +2196,6 @@
       <c r="E17" t="s">
         <v>20</v>
       </c>
-      <c r="F17" t="s"/>
       <c r="G17" t="s">
         <v>61</v>
       </c>
@@ -1271,7 +2225,6 @@
       <c r="E18" t="s">
         <v>20</v>
       </c>
-      <c r="F18" t="s"/>
       <c r="G18" t="s">
         <v>63</v>
       </c>
@@ -1301,7 +2254,6 @@
       <c r="E19" t="s">
         <v>20</v>
       </c>
-      <c r="F19" t="s"/>
       <c r="G19" t="s">
         <v>66</v>
       </c>
@@ -1331,7 +2283,6 @@
       <c r="E20" t="s">
         <v>20</v>
       </c>
-      <c r="F20" t="s"/>
       <c r="G20" t="s">
         <v>69</v>
       </c>
@@ -1361,7 +2312,6 @@
       <c r="E21" t="s">
         <v>20</v>
       </c>
-      <c r="F21" t="s"/>
       <c r="G21" t="s">
         <v>73</v>
       </c>
@@ -1391,7 +2341,6 @@
       <c r="E22" t="s">
         <v>20</v>
       </c>
-      <c r="F22" t="s"/>
       <c r="G22" t="s">
         <v>76</v>
       </c>
@@ -1421,7 +2370,6 @@
       <c r="E23" t="s">
         <v>20</v>
       </c>
-      <c r="F23" t="s"/>
       <c r="G23" t="s">
         <v>78</v>
       </c>
@@ -1451,7 +2399,6 @@
       <c r="E24" t="s">
         <v>20</v>
       </c>
-      <c r="F24" t="s"/>
       <c r="G24" t="s">
         <v>81</v>
       </c>
@@ -1481,7 +2428,6 @@
       <c r="E25" t="s">
         <v>20</v>
       </c>
-      <c r="F25" t="s"/>
       <c r="G25" t="s">
         <v>83</v>
       </c>
@@ -1511,7 +2457,6 @@
       <c r="E26" t="s">
         <v>20</v>
       </c>
-      <c r="F26" t="s"/>
       <c r="G26" t="s">
         <v>33</v>
       </c>
@@ -1541,7 +2486,6 @@
       <c r="E27" t="s">
         <v>20</v>
       </c>
-      <c r="F27" t="s"/>
       <c r="G27" t="s">
         <v>86</v>
       </c>
@@ -1571,7 +2515,6 @@
       <c r="E28" t="s">
         <v>20</v>
       </c>
-      <c r="F28" t="s"/>
       <c r="G28" t="s">
         <v>88</v>
       </c>
@@ -1601,7 +2544,6 @@
       <c r="E29" t="s">
         <v>20</v>
       </c>
-      <c r="F29" t="s"/>
       <c r="G29" t="s">
         <v>36</v>
       </c>
@@ -1631,7 +2573,6 @@
       <c r="E30" t="s">
         <v>20</v>
       </c>
-      <c r="F30" t="s"/>
       <c r="G30" t="s">
         <v>36</v>
       </c>
@@ -1661,7 +2602,6 @@
       <c r="E31" t="s">
         <v>20</v>
       </c>
-      <c r="F31" t="s"/>
       <c r="G31" t="s">
         <v>61</v>
       </c>
@@ -1691,7 +2631,6 @@
       <c r="E32" t="s">
         <v>20</v>
       </c>
-      <c r="F32" t="s"/>
       <c r="G32" t="s">
         <v>94</v>
       </c>
@@ -1721,7 +2660,6 @@
       <c r="E33" t="s">
         <v>20</v>
       </c>
-      <c r="F33" t="s"/>
       <c r="G33" t="s">
         <v>96</v>
       </c>
@@ -1751,7 +2689,6 @@
       <c r="E34" t="s">
         <v>20</v>
       </c>
-      <c r="F34" t="s"/>
       <c r="G34" t="s">
         <v>61</v>
       </c>
@@ -1781,7 +2718,6 @@
       <c r="E35" t="s">
         <v>20</v>
       </c>
-      <c r="F35" t="s"/>
       <c r="G35" t="s">
         <v>100</v>
       </c>
@@ -1811,7 +2747,6 @@
       <c r="E36" t="s">
         <v>20</v>
       </c>
-      <c r="F36" t="s"/>
       <c r="G36" t="s">
         <v>102</v>
       </c>
@@ -1841,7 +2776,6 @@
       <c r="E37" t="s">
         <v>20</v>
       </c>
-      <c r="F37" t="s"/>
       <c r="G37" t="s">
         <v>61</v>
       </c>
@@ -1871,7 +2805,6 @@
       <c r="E38" t="s">
         <v>20</v>
       </c>
-      <c r="F38" t="s"/>
       <c r="G38" t="s">
         <v>106</v>
       </c>
@@ -1901,7 +2834,6 @@
       <c r="E39" t="s">
         <v>20</v>
       </c>
-      <c r="F39" t="s"/>
       <c r="G39" t="s">
         <v>108</v>
       </c>
@@ -1915,7 +2847,4648 @@
         <v>17</v>
       </c>
     </row>
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" t="s">
+        <v>54</v>
+      </c>
+      <c r="H40" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
+        <v>110</v>
+      </c>
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" t="s">
+        <v>111</v>
+      </c>
+      <c r="E41" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" t="s">
+        <v>112</v>
+      </c>
+      <c r="H41" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42" t="s">
+        <v>114</v>
+      </c>
+      <c r="H42" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42" t="s">
+        <v>17</v>
+      </c>
+      <c r="J42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" t="s">
+        <v>115</v>
+      </c>
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" t="s">
+        <v>59</v>
+      </c>
+      <c r="E43" t="s">
+        <v>20</v>
+      </c>
+      <c r="G43" t="s">
+        <v>61</v>
+      </c>
+      <c r="H43" t="s">
+        <v>29</v>
+      </c>
+      <c r="I43" t="s">
+        <v>17</v>
+      </c>
+      <c r="J43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" t="s">
+        <v>116</v>
+      </c>
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" t="s">
+        <v>59</v>
+      </c>
+      <c r="E44" t="s">
+        <v>20</v>
+      </c>
+      <c r="G44" t="s">
+        <v>61</v>
+      </c>
+      <c r="H44" t="s">
+        <v>29</v>
+      </c>
+      <c r="I44" t="s">
+        <v>17</v>
+      </c>
+      <c r="J44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" t="s">
+        <v>117</v>
+      </c>
+      <c r="B45" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" t="s">
+        <v>27</v>
+      </c>
+      <c r="E45" t="s">
+        <v>20</v>
+      </c>
+      <c r="G45" t="s">
+        <v>63</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>17</v>
+      </c>
+      <c r="J45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" t="s">
+        <v>118</v>
+      </c>
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" t="s">
+        <v>20</v>
+      </c>
+      <c r="G46" t="s">
+        <v>119</v>
+      </c>
+      <c r="H46" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" t="s">
+        <v>120</v>
+      </c>
+      <c r="B47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" t="s">
+        <v>121</v>
+      </c>
+      <c r="E47" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" t="s">
+        <v>78</v>
+      </c>
+      <c r="H47" t="s">
+        <v>29</v>
+      </c>
+      <c r="I47" t="s">
+        <v>17</v>
+      </c>
+      <c r="J47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" t="s">
+        <v>122</v>
+      </c>
+      <c r="B48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" t="s">
+        <v>27</v>
+      </c>
+      <c r="E48" t="s">
+        <v>20</v>
+      </c>
+      <c r="G48" t="s">
+        <v>66</v>
+      </c>
+      <c r="H48" t="s">
+        <v>29</v>
+      </c>
+      <c r="I48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" t="s">
+        <v>123</v>
+      </c>
+      <c r="B49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49" t="s">
+        <v>124</v>
+      </c>
+      <c r="E49" t="s">
+        <v>20</v>
+      </c>
+      <c r="G49" t="s">
+        <v>125</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>126</v>
+      </c>
+      <c r="J49" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" t="s">
+        <v>128</v>
+      </c>
+      <c r="B50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E50" t="s">
+        <v>20</v>
+      </c>
+      <c r="G50" t="s">
+        <v>125</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>17</v>
+      </c>
+      <c r="J50" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" t="s">
+        <v>129</v>
+      </c>
+      <c r="B51" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" t="s">
+        <v>26</v>
+      </c>
+      <c r="D51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E51" t="s">
+        <v>20</v>
+      </c>
+      <c r="G51" t="s">
+        <v>106</v>
+      </c>
+      <c r="H51" t="s">
+        <v>16</v>
+      </c>
+      <c r="I51" t="s">
+        <v>17</v>
+      </c>
+      <c r="J51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" t="s">
+        <v>130</v>
+      </c>
+      <c r="B52" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" t="s">
+        <v>26</v>
+      </c>
+      <c r="D52" t="s">
+        <v>27</v>
+      </c>
+      <c r="E52" t="s">
+        <v>20</v>
+      </c>
+      <c r="G52" t="s">
+        <v>106</v>
+      </c>
+      <c r="H52" t="s">
+        <v>16</v>
+      </c>
+      <c r="I52" t="s">
+        <v>17</v>
+      </c>
+      <c r="J52" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" t="s">
+        <v>131</v>
+      </c>
+      <c r="B53" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" t="s">
+        <v>58</v>
+      </c>
+      <c r="D53" t="s">
+        <v>59</v>
+      </c>
+      <c r="E53" t="s">
+        <v>132</v>
+      </c>
+      <c r="G53" t="s">
+        <v>76</v>
+      </c>
+      <c r="H53" t="s">
+        <v>29</v>
+      </c>
+      <c r="I53" t="s">
+        <v>17</v>
+      </c>
+      <c r="J53" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" t="s">
+        <v>133</v>
+      </c>
+      <c r="B54" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54" t="s">
+        <v>134</v>
+      </c>
+      <c r="E54" t="s">
+        <v>132</v>
+      </c>
+      <c r="G54" t="s">
+        <v>135</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>17</v>
+      </c>
+      <c r="J54" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" t="s">
+        <v>136</v>
+      </c>
+      <c r="B55" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" t="s">
+        <v>58</v>
+      </c>
+      <c r="D55" t="s">
+        <v>134</v>
+      </c>
+      <c r="E55" t="s">
+        <v>132</v>
+      </c>
+      <c r="G55" t="s">
+        <v>137</v>
+      </c>
+      <c r="H55" t="s">
+        <v>138</v>
+      </c>
+      <c r="I55" t="s">
+        <v>17</v>
+      </c>
+      <c r="J55" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" t="s">
+        <v>139</v>
+      </c>
+      <c r="B56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" t="s">
+        <v>58</v>
+      </c>
+      <c r="D56" t="s">
+        <v>140</v>
+      </c>
+      <c r="E56" t="s">
+        <v>132</v>
+      </c>
+      <c r="G56" t="s">
+        <v>28</v>
+      </c>
+      <c r="H56" t="s">
+        <v>29</v>
+      </c>
+      <c r="I56" t="s">
+        <v>17</v>
+      </c>
+      <c r="J56" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" t="s">
+        <v>141</v>
+      </c>
+      <c r="B57" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57" t="s">
+        <v>26</v>
+      </c>
+      <c r="D57" t="s">
+        <v>27</v>
+      </c>
+      <c r="E57" t="s">
+        <v>132</v>
+      </c>
+      <c r="G57" t="s">
+        <v>142</v>
+      </c>
+      <c r="H57" t="s">
+        <v>34</v>
+      </c>
+      <c r="I57" t="s">
+        <v>17</v>
+      </c>
+      <c r="J57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" t="s">
+        <v>143</v>
+      </c>
+      <c r="B58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" t="s">
+        <v>92</v>
+      </c>
+      <c r="D58" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" t="s">
+        <v>132</v>
+      </c>
+      <c r="G58" t="s">
+        <v>144</v>
+      </c>
+      <c r="H58" t="s">
+        <v>16</v>
+      </c>
+      <c r="I58" t="s">
+        <v>17</v>
+      </c>
+      <c r="J58" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" t="s">
+        <v>145</v>
+      </c>
+      <c r="B59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" t="s">
+        <v>58</v>
+      </c>
+      <c r="D59" t="s">
+        <v>146</v>
+      </c>
+      <c r="E59" t="s">
+        <v>132</v>
+      </c>
+      <c r="G59" t="s">
+        <v>147</v>
+      </c>
+      <c r="H59" t="s">
+        <v>34</v>
+      </c>
+      <c r="I59" t="s">
+        <v>17</v>
+      </c>
+      <c r="J59" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" t="s">
+        <v>148</v>
+      </c>
+      <c r="B60" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" t="s">
+        <v>58</v>
+      </c>
+      <c r="D60" t="s">
+        <v>75</v>
+      </c>
+      <c r="E60" t="s">
+        <v>132</v>
+      </c>
+      <c r="G60" t="s">
+        <v>149</v>
+      </c>
+      <c r="H60" t="s">
+        <v>29</v>
+      </c>
+      <c r="I60" t="s">
+        <v>17</v>
+      </c>
+      <c r="J60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" t="s">
+        <v>150</v>
+      </c>
+      <c r="B61" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" t="s">
+        <v>58</v>
+      </c>
+      <c r="D61" t="s">
+        <v>75</v>
+      </c>
+      <c r="E61" t="s">
+        <v>132</v>
+      </c>
+      <c r="G61" t="s">
+        <v>151</v>
+      </c>
+      <c r="H61" t="s">
+        <v>152</v>
+      </c>
+      <c r="I61" t="s">
+        <v>17</v>
+      </c>
+      <c r="J61" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" t="s">
+        <v>153</v>
+      </c>
+      <c r="B62" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" t="s">
+        <v>65</v>
+      </c>
+      <c r="E62" t="s">
+        <v>132</v>
+      </c>
+      <c r="G62" t="s">
+        <v>76</v>
+      </c>
+      <c r="H62" t="s">
+        <v>29</v>
+      </c>
+      <c r="I62" t="s">
+        <v>17</v>
+      </c>
+      <c r="J62" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" t="s">
+        <v>154</v>
+      </c>
+      <c r="B63" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" t="s">
+        <v>45</v>
+      </c>
+      <c r="E63" t="s">
+        <v>132</v>
+      </c>
+      <c r="G63" t="s">
+        <v>155</v>
+      </c>
+      <c r="H63" t="s">
+        <v>156</v>
+      </c>
+      <c r="I63" t="s">
+        <v>17</v>
+      </c>
+      <c r="J63" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" t="s">
+        <v>157</v>
+      </c>
+      <c r="B64" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" t="s">
+        <v>132</v>
+      </c>
+      <c r="G64" t="s">
+        <v>125</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>17</v>
+      </c>
+      <c r="J64" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" t="s">
+        <v>158</v>
+      </c>
+      <c r="B65" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" t="s">
+        <v>124</v>
+      </c>
+      <c r="E65" t="s">
+        <v>132</v>
+      </c>
+      <c r="G65" t="s">
+        <v>159</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>17</v>
+      </c>
+      <c r="J65" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" t="s">
+        <v>160</v>
+      </c>
+      <c r="B66" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" t="s">
+        <v>58</v>
+      </c>
+      <c r="D66" t="s">
+        <v>146</v>
+      </c>
+      <c r="E66" t="s">
+        <v>132</v>
+      </c>
+      <c r="G66" t="s">
+        <v>161</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>17</v>
+      </c>
+      <c r="J66" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" t="s">
+        <v>162</v>
+      </c>
+      <c r="B67" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" t="s">
+        <v>58</v>
+      </c>
+      <c r="D67" t="s">
+        <v>140</v>
+      </c>
+      <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="G67" t="s">
+        <v>163</v>
+      </c>
+      <c r="H67" t="s">
+        <v>34</v>
+      </c>
+      <c r="I67" t="s">
+        <v>17</v>
+      </c>
+      <c r="J67" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" t="s">
+        <v>164</v>
+      </c>
+      <c r="B68" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" t="s">
+        <v>58</v>
+      </c>
+      <c r="D68" t="s">
+        <v>165</v>
+      </c>
+      <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="G68" t="s">
+        <v>166</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>17</v>
+      </c>
+      <c r="J68" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" t="s">
+        <v>167</v>
+      </c>
+      <c r="B69" t="s">
+        <v>52</v>
+      </c>
+      <c r="C69" t="s">
+        <v>53</v>
+      </c>
+      <c r="D69" t="s">
+        <v>168</v>
+      </c>
+      <c r="E69" t="s">
+        <v>132</v>
+      </c>
+      <c r="G69" t="s">
+        <v>125</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>169</v>
+      </c>
+      <c r="J69" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" t="s">
+        <v>170</v>
+      </c>
+      <c r="B70" t="s">
+        <v>52</v>
+      </c>
+      <c r="C70" t="s">
+        <v>53</v>
+      </c>
+      <c r="D70" t="s">
+        <v>171</v>
+      </c>
+      <c r="E70" t="s">
+        <v>132</v>
+      </c>
+      <c r="G70" t="s">
+        <v>172</v>
+      </c>
+      <c r="H70" t="s">
+        <v>29</v>
+      </c>
+      <c r="I70" t="s">
+        <v>173</v>
+      </c>
+      <c r="J70" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" t="s">
+        <v>174</v>
+      </c>
+      <c r="B71" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" t="s">
+        <v>58</v>
+      </c>
+      <c r="D71" t="s">
+        <v>171</v>
+      </c>
+      <c r="E71" t="s">
+        <v>132</v>
+      </c>
+      <c r="G71" t="s">
+        <v>175</v>
+      </c>
+      <c r="H71" t="s">
+        <v>29</v>
+      </c>
+      <c r="I71" t="s">
+        <v>17</v>
+      </c>
+      <c r="J71" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" t="s">
+        <v>176</v>
+      </c>
+      <c r="B72" t="s">
+        <v>52</v>
+      </c>
+      <c r="C72" t="s">
+        <v>53</v>
+      </c>
+      <c r="D72" t="s">
+        <v>105</v>
+      </c>
+      <c r="E72" t="s">
+        <v>132</v>
+      </c>
+      <c r="G72" t="s">
+        <v>177</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>178</v>
+      </c>
+      <c r="J72" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" t="s">
+        <v>179</v>
+      </c>
+      <c r="B73" t="s">
+        <v>52</v>
+      </c>
+      <c r="C73" t="s">
+        <v>53</v>
+      </c>
+      <c r="D73" t="s">
+        <v>19</v>
+      </c>
+      <c r="E73" t="s">
+        <v>132</v>
+      </c>
+      <c r="G73" t="s">
+        <v>180</v>
+      </c>
+      <c r="H73" t="s">
+        <v>16</v>
+      </c>
+      <c r="I73" t="s">
+        <v>181</v>
+      </c>
+      <c r="J73" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" t="s">
+        <v>182</v>
+      </c>
+      <c r="B74" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" t="s">
+        <v>58</v>
+      </c>
+      <c r="D74" t="s">
+        <v>183</v>
+      </c>
+      <c r="E74" t="s">
+        <v>132</v>
+      </c>
+      <c r="G74" t="s">
+        <v>33</v>
+      </c>
+      <c r="H74" t="s">
+        <v>34</v>
+      </c>
+      <c r="I74" t="s">
+        <v>17</v>
+      </c>
+      <c r="J74" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" t="s">
+        <v>184</v>
+      </c>
+      <c r="B75" t="s">
+        <v>52</v>
+      </c>
+      <c r="C75" t="s">
+        <v>53</v>
+      </c>
+      <c r="D75" t="s">
+        <v>183</v>
+      </c>
+      <c r="E75" t="s">
+        <v>132</v>
+      </c>
+      <c r="G75" t="s">
+        <v>185</v>
+      </c>
+      <c r="H75" t="s">
+        <v>29</v>
+      </c>
+      <c r="I75" t="s">
+        <v>186</v>
+      </c>
+      <c r="J75" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" t="s">
+        <v>187</v>
+      </c>
+      <c r="B76" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" t="s">
+        <v>58</v>
+      </c>
+      <c r="D76" t="s">
+        <v>183</v>
+      </c>
+      <c r="E76" t="s">
+        <v>132</v>
+      </c>
+      <c r="G76" t="s">
+        <v>149</v>
+      </c>
+      <c r="H76" t="s">
+        <v>29</v>
+      </c>
+      <c r="I76" t="s">
+        <v>17</v>
+      </c>
+      <c r="J76" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" t="s">
+        <v>188</v>
+      </c>
+      <c r="B77" t="s">
+        <v>52</v>
+      </c>
+      <c r="C77" t="s">
+        <v>53</v>
+      </c>
+      <c r="D77" t="s">
+        <v>124</v>
+      </c>
+      <c r="E77" t="s">
+        <v>132</v>
+      </c>
+      <c r="G77" t="s">
+        <v>125</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>189</v>
+      </c>
+      <c r="J77" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" t="s">
+        <v>190</v>
+      </c>
+      <c r="B78" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" t="s">
+        <v>38</v>
+      </c>
+      <c r="E78" t="s">
+        <v>132</v>
+      </c>
+      <c r="G78" t="s">
+        <v>191</v>
+      </c>
+      <c r="H78" t="s">
+        <v>34</v>
+      </c>
+      <c r="I78" t="s">
+        <v>17</v>
+      </c>
+      <c r="J78" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" t="s">
+        <v>192</v>
+      </c>
+      <c r="B79" t="s">
+        <v>52</v>
+      </c>
+      <c r="C79" t="s">
+        <v>53</v>
+      </c>
+      <c r="D79" t="s">
+        <v>168</v>
+      </c>
+      <c r="E79" t="s">
+        <v>132</v>
+      </c>
+      <c r="G79" t="s">
+        <v>125</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>193</v>
+      </c>
+      <c r="J79" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" t="s">
+        <v>194</v>
+      </c>
+      <c r="B80" t="s">
+        <v>52</v>
+      </c>
+      <c r="C80" t="s">
+        <v>53</v>
+      </c>
+      <c r="D80" t="s">
+        <v>124</v>
+      </c>
+      <c r="E80" t="s">
+        <v>132</v>
+      </c>
+      <c r="G80" t="s">
+        <v>125</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>195</v>
+      </c>
+      <c r="J80" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" t="s">
+        <v>196</v>
+      </c>
+      <c r="B81" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" t="s">
+        <v>197</v>
+      </c>
+      <c r="E81" t="s">
+        <v>132</v>
+      </c>
+      <c r="G81" t="s">
+        <v>198</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>17</v>
+      </c>
+      <c r="J81" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" t="s">
+        <v>199</v>
+      </c>
+      <c r="B82" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" t="s">
+        <v>58</v>
+      </c>
+      <c r="D82" t="s">
+        <v>200</v>
+      </c>
+      <c r="E82" t="s">
+        <v>132</v>
+      </c>
+      <c r="G82" t="s">
+        <v>63</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>17</v>
+      </c>
+      <c r="J82" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" t="s">
+        <v>201</v>
+      </c>
+      <c r="B83" t="s">
+        <v>25</v>
+      </c>
+      <c r="C83" t="s">
+        <v>26</v>
+      </c>
+      <c r="D83" t="s">
+        <v>27</v>
+      </c>
+      <c r="E83" t="s">
+        <v>132</v>
+      </c>
+      <c r="G83" t="s">
+        <v>125</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>17</v>
+      </c>
+      <c r="J83" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" t="s">
+        <v>202</v>
+      </c>
+      <c r="B84" t="s">
+        <v>25</v>
+      </c>
+      <c r="C84" t="s">
+        <v>26</v>
+      </c>
+      <c r="D84" t="s">
+        <v>27</v>
+      </c>
+      <c r="E84" t="s">
+        <v>132</v>
+      </c>
+      <c r="G84" t="s">
+        <v>125</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>17</v>
+      </c>
+      <c r="J84" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" t="s">
+        <v>203</v>
+      </c>
+      <c r="B85" t="s">
+        <v>25</v>
+      </c>
+      <c r="C85" t="s">
+        <v>26</v>
+      </c>
+      <c r="D85" t="s">
+        <v>27</v>
+      </c>
+      <c r="E85" t="s">
+        <v>132</v>
+      </c>
+      <c r="G85" t="s">
+        <v>204</v>
+      </c>
+      <c r="H85" t="s">
+        <v>16</v>
+      </c>
+      <c r="I85" t="s">
+        <v>17</v>
+      </c>
+      <c r="J85" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" t="s">
+        <v>205</v>
+      </c>
+      <c r="B86" t="s">
+        <v>25</v>
+      </c>
+      <c r="C86" t="s">
+        <v>26</v>
+      </c>
+      <c r="D86" t="s">
+        <v>27</v>
+      </c>
+      <c r="E86" t="s">
+        <v>132</v>
+      </c>
+      <c r="G86" t="s">
+        <v>204</v>
+      </c>
+      <c r="H86" t="s">
+        <v>16</v>
+      </c>
+      <c r="I86" t="s">
+        <v>17</v>
+      </c>
+      <c r="J86" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" t="s">
+        <v>206</v>
+      </c>
+      <c r="B87" t="s">
+        <v>52</v>
+      </c>
+      <c r="C87" t="s">
+        <v>53</v>
+      </c>
+      <c r="D87" t="s">
+        <v>168</v>
+      </c>
+      <c r="E87" t="s">
+        <v>132</v>
+      </c>
+      <c r="G87" t="s">
+        <v>207</v>
+      </c>
+      <c r="H87" t="s">
+        <v>16</v>
+      </c>
+      <c r="I87" t="s">
+        <v>208</v>
+      </c>
+      <c r="J87" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" t="s">
+        <v>209</v>
+      </c>
+      <c r="B88" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88" t="s">
+        <v>58</v>
+      </c>
+      <c r="D88" t="s">
+        <v>59</v>
+      </c>
+      <c r="E88" t="s">
+        <v>132</v>
+      </c>
+      <c r="G88" t="s">
+        <v>210</v>
+      </c>
+      <c r="H88" t="s">
+        <v>29</v>
+      </c>
+      <c r="I88" t="s">
+        <v>17</v>
+      </c>
+      <c r="J88" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" t="s">
+        <v>211</v>
+      </c>
+      <c r="B89" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" t="s">
+        <v>38</v>
+      </c>
+      <c r="E89" t="s">
+        <v>132</v>
+      </c>
+      <c r="G89" t="s">
+        <v>212</v>
+      </c>
+      <c r="H89" t="s">
+        <v>213</v>
+      </c>
+      <c r="I89" t="s">
+        <v>17</v>
+      </c>
+      <c r="J89" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" t="s">
+        <v>214</v>
+      </c>
+      <c r="B90" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" t="s">
+        <v>27</v>
+      </c>
+      <c r="E90" t="s">
+        <v>132</v>
+      </c>
+      <c r="G90" t="s">
+        <v>69</v>
+      </c>
+      <c r="H90" t="s">
+        <v>70</v>
+      </c>
+      <c r="I90" t="s">
+        <v>17</v>
+      </c>
+      <c r="J90" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" t="s">
+        <v>215</v>
+      </c>
+      <c r="B91" t="s">
+        <v>25</v>
+      </c>
+      <c r="C91" t="s">
+        <v>26</v>
+      </c>
+      <c r="D91" t="s">
+        <v>27</v>
+      </c>
+      <c r="E91" t="s">
+        <v>132</v>
+      </c>
+      <c r="G91" t="s">
+        <v>125</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>17</v>
+      </c>
+      <c r="J91" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" t="s">
+        <v>216</v>
+      </c>
+      <c r="B92" t="s">
+        <v>25</v>
+      </c>
+      <c r="C92" t="s">
+        <v>26</v>
+      </c>
+      <c r="D92" t="s">
+        <v>27</v>
+      </c>
+      <c r="E92" t="s">
+        <v>132</v>
+      </c>
+      <c r="G92" t="s">
+        <v>76</v>
+      </c>
+      <c r="H92" t="s">
+        <v>29</v>
+      </c>
+      <c r="I92" t="s">
+        <v>17</v>
+      </c>
+      <c r="J92" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93" t="s">
+        <v>217</v>
+      </c>
+      <c r="B93" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" t="s">
+        <v>58</v>
+      </c>
+      <c r="D93" t="s">
+        <v>218</v>
+      </c>
+      <c r="E93" t="s">
+        <v>132</v>
+      </c>
+      <c r="G93" t="s">
+        <v>219</v>
+      </c>
+      <c r="H93" t="s">
+        <v>34</v>
+      </c>
+      <c r="I93" t="s">
+        <v>17</v>
+      </c>
+      <c r="J93" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" t="s">
+        <v>220</v>
+      </c>
+      <c r="B94" t="s">
+        <v>25</v>
+      </c>
+      <c r="C94" t="s">
+        <v>26</v>
+      </c>
+      <c r="D94" t="s">
+        <v>27</v>
+      </c>
+      <c r="E94" t="s">
+        <v>132</v>
+      </c>
+      <c r="G94" t="s">
+        <v>221</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>17</v>
+      </c>
+      <c r="J94" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" t="s">
+        <v>222</v>
+      </c>
+      <c r="B95" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95" t="s">
+        <v>38</v>
+      </c>
+      <c r="E95" t="s">
+        <v>132</v>
+      </c>
+      <c r="G95" t="s">
+        <v>223</v>
+      </c>
+      <c r="H95" t="s">
+        <v>34</v>
+      </c>
+      <c r="I95" t="s">
+        <v>17</v>
+      </c>
+      <c r="J95" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" t="s">
+        <v>224</v>
+      </c>
+      <c r="B96" t="s">
+        <v>11</v>
+      </c>
+      <c r="C96" t="s">
+        <v>58</v>
+      </c>
+      <c r="D96" t="s">
+        <v>59</v>
+      </c>
+      <c r="E96" t="s">
+        <v>132</v>
+      </c>
+      <c r="G96" t="s">
+        <v>210</v>
+      </c>
+      <c r="H96" t="s">
+        <v>29</v>
+      </c>
+      <c r="I96" t="s">
+        <v>17</v>
+      </c>
+      <c r="J96" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" t="s">
+        <v>225</v>
+      </c>
+      <c r="B97" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" t="s">
+        <v>58</v>
+      </c>
+      <c r="D97" t="s">
+        <v>183</v>
+      </c>
+      <c r="E97" t="s">
+        <v>132</v>
+      </c>
+      <c r="G97" t="s">
+        <v>185</v>
+      </c>
+      <c r="H97" t="s">
+        <v>29</v>
+      </c>
+      <c r="I97" t="s">
+        <v>17</v>
+      </c>
+      <c r="J97" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98" t="s">
+        <v>226</v>
+      </c>
+      <c r="B98" t="s">
+        <v>11</v>
+      </c>
+      <c r="C98" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" t="s">
+        <v>38</v>
+      </c>
+      <c r="E98" t="s">
+        <v>132</v>
+      </c>
+      <c r="G98" t="s">
+        <v>223</v>
+      </c>
+      <c r="H98" t="s">
+        <v>34</v>
+      </c>
+      <c r="I98" t="s">
+        <v>17</v>
+      </c>
+      <c r="J98" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99" t="s">
+        <v>227</v>
+      </c>
+      <c r="B99" t="s">
+        <v>52</v>
+      </c>
+      <c r="C99" t="s">
+        <v>53</v>
+      </c>
+      <c r="D99" t="s">
+        <v>13</v>
+      </c>
+      <c r="E99" t="s">
+        <v>132</v>
+      </c>
+      <c r="G99" t="s">
+        <v>228</v>
+      </c>
+      <c r="H99" t="s">
+        <v>16</v>
+      </c>
+      <c r="I99" t="s">
+        <v>229</v>
+      </c>
+      <c r="J99" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" t="s">
+        <v>230</v>
+      </c>
+      <c r="B100" t="s">
+        <v>52</v>
+      </c>
+      <c r="C100" t="s">
+        <v>53</v>
+      </c>
+      <c r="D100" t="s">
+        <v>19</v>
+      </c>
+      <c r="E100" t="s">
+        <v>132</v>
+      </c>
+      <c r="G100" t="s">
+        <v>96</v>
+      </c>
+      <c r="H100" t="s">
+        <v>16</v>
+      </c>
+      <c r="I100" t="s">
+        <v>231</v>
+      </c>
+      <c r="J100" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" t="s">
+        <v>232</v>
+      </c>
+      <c r="B101" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101" t="s">
+        <v>58</v>
+      </c>
+      <c r="D101" t="s">
+        <v>233</v>
+      </c>
+      <c r="E101" t="s">
+        <v>132</v>
+      </c>
+      <c r="G101" t="s">
+        <v>223</v>
+      </c>
+      <c r="H101" t="s">
+        <v>34</v>
+      </c>
+      <c r="I101" t="s">
+        <v>17</v>
+      </c>
+      <c r="J101" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102" t="s">
+        <v>234</v>
+      </c>
+      <c r="B102" t="s">
+        <v>11</v>
+      </c>
+      <c r="C102" t="s">
+        <v>58</v>
+      </c>
+      <c r="D102" t="s">
+        <v>235</v>
+      </c>
+      <c r="E102" t="s">
+        <v>132</v>
+      </c>
+      <c r="G102" t="s">
+        <v>36</v>
+      </c>
+      <c r="H102" t="s">
+        <v>34</v>
+      </c>
+      <c r="I102" t="s">
+        <v>17</v>
+      </c>
+      <c r="J102" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103" t="s">
+        <v>236</v>
+      </c>
+      <c r="B103" t="s">
+        <v>11</v>
+      </c>
+      <c r="C103" t="s">
+        <v>92</v>
+      </c>
+      <c r="D103" t="s">
+        <v>124</v>
+      </c>
+      <c r="E103" t="s">
+        <v>132</v>
+      </c>
+      <c r="G103" t="s">
+        <v>125</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>17</v>
+      </c>
+      <c r="J103" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="A104" t="s">
+        <v>237</v>
+      </c>
+      <c r="B104" t="s">
+        <v>11</v>
+      </c>
+      <c r="C104" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104" t="s">
+        <v>124</v>
+      </c>
+      <c r="E104" t="s">
+        <v>132</v>
+      </c>
+      <c r="G104" t="s">
+        <v>159</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>17</v>
+      </c>
+      <c r="J104" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="A105" t="s">
+        <v>238</v>
+      </c>
+      <c r="B105" t="s">
+        <v>11</v>
+      </c>
+      <c r="C105" t="s">
+        <v>58</v>
+      </c>
+      <c r="D105" t="s">
+        <v>59</v>
+      </c>
+      <c r="E105" t="s">
+        <v>132</v>
+      </c>
+      <c r="G105" t="s">
+        <v>66</v>
+      </c>
+      <c r="H105" t="s">
+        <v>29</v>
+      </c>
+      <c r="I105" t="s">
+        <v>17</v>
+      </c>
+      <c r="J105" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106" t="s">
+        <v>239</v>
+      </c>
+      <c r="B106" t="s">
+        <v>11</v>
+      </c>
+      <c r="C106" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" t="s">
+        <v>13</v>
+      </c>
+      <c r="E106" t="s">
+        <v>132</v>
+      </c>
+      <c r="G106" t="s">
+        <v>240</v>
+      </c>
+      <c r="H106" t="s">
+        <v>16</v>
+      </c>
+      <c r="I106" t="s">
+        <v>17</v>
+      </c>
+      <c r="J106" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="A107" t="s">
+        <v>241</v>
+      </c>
+      <c r="B107" t="s">
+        <v>11</v>
+      </c>
+      <c r="C107" t="s">
+        <v>58</v>
+      </c>
+      <c r="D107" t="s">
+        <v>183</v>
+      </c>
+      <c r="E107" t="s">
+        <v>132</v>
+      </c>
+      <c r="G107" t="s">
+        <v>78</v>
+      </c>
+      <c r="H107" t="s">
+        <v>29</v>
+      </c>
+      <c r="I107" t="s">
+        <v>17</v>
+      </c>
+      <c r="J107" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="A108" t="s">
+        <v>242</v>
+      </c>
+      <c r="B108" t="s">
+        <v>11</v>
+      </c>
+      <c r="C108" t="s">
+        <v>58</v>
+      </c>
+      <c r="D108" t="s">
+        <v>218</v>
+      </c>
+      <c r="E108" t="s">
+        <v>132</v>
+      </c>
+      <c r="G108" t="s">
+        <v>243</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>17</v>
+      </c>
+      <c r="J108" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109" t="s">
+        <v>244</v>
+      </c>
+      <c r="B109" t="s">
+        <v>52</v>
+      </c>
+      <c r="C109" t="s">
+        <v>53</v>
+      </c>
+      <c r="D109" t="s">
+        <v>13</v>
+      </c>
+      <c r="E109" t="s">
+        <v>132</v>
+      </c>
+      <c r="G109" t="s">
+        <v>245</v>
+      </c>
+      <c r="H109" t="s">
+        <v>16</v>
+      </c>
+      <c r="I109" t="s">
+        <v>246</v>
+      </c>
+      <c r="J109" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110" t="s">
+        <v>247</v>
+      </c>
+      <c r="B110" t="s">
+        <v>52</v>
+      </c>
+      <c r="C110" t="s">
+        <v>53</v>
+      </c>
+      <c r="D110" t="s">
+        <v>19</v>
+      </c>
+      <c r="E110" t="s">
+        <v>132</v>
+      </c>
+      <c r="G110" t="s">
+        <v>180</v>
+      </c>
+      <c r="H110" t="s">
+        <v>16</v>
+      </c>
+      <c r="I110" t="s">
+        <v>248</v>
+      </c>
+      <c r="J110" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="A111" t="s">
+        <v>249</v>
+      </c>
+      <c r="B111" t="s">
+        <v>11</v>
+      </c>
+      <c r="C111" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" t="s">
+        <v>27</v>
+      </c>
+      <c r="E111" t="s">
+        <v>250</v>
+      </c>
+      <c r="G111" t="s">
+        <v>204</v>
+      </c>
+      <c r="H111" t="s">
+        <v>16</v>
+      </c>
+      <c r="I111" t="s">
+        <v>17</v>
+      </c>
+      <c r="J111" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112" t="s">
+        <v>251</v>
+      </c>
+      <c r="B112" t="s">
+        <v>52</v>
+      </c>
+      <c r="C112" t="s">
+        <v>53</v>
+      </c>
+      <c r="D112" t="s">
+        <v>19</v>
+      </c>
+      <c r="E112" t="s">
+        <v>250</v>
+      </c>
+      <c r="G112" t="s">
+        <v>96</v>
+      </c>
+      <c r="H112" t="s">
+        <v>16</v>
+      </c>
+      <c r="I112" t="s">
+        <v>252</v>
+      </c>
+      <c r="J112" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113" t="s">
+        <v>253</v>
+      </c>
+      <c r="B113" t="s">
+        <v>11</v>
+      </c>
+      <c r="C113" t="s">
+        <v>58</v>
+      </c>
+      <c r="D113" t="s">
+        <v>59</v>
+      </c>
+      <c r="E113" t="s">
+        <v>250</v>
+      </c>
+      <c r="G113" t="s">
+        <v>240</v>
+      </c>
+      <c r="H113" t="s">
+        <v>16</v>
+      </c>
+      <c r="I113" t="s">
+        <v>17</v>
+      </c>
+      <c r="J113" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="A114" t="s">
+        <v>254</v>
+      </c>
+      <c r="B114" t="s">
+        <v>52</v>
+      </c>
+      <c r="C114" t="s">
+        <v>53</v>
+      </c>
+      <c r="D114" t="s">
+        <v>124</v>
+      </c>
+      <c r="E114" t="s">
+        <v>250</v>
+      </c>
+      <c r="G114" t="s">
+        <v>125</v>
+      </c>
+      <c r="H114" t="s">
+        <v>47</v>
+      </c>
+      <c r="I114" t="s">
+        <v>255</v>
+      </c>
+      <c r="J114" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="A115" t="s">
+        <v>256</v>
+      </c>
+      <c r="B115" t="s">
+        <v>25</v>
+      </c>
+      <c r="C115" t="s">
+        <v>26</v>
+      </c>
+      <c r="D115" t="s">
+        <v>27</v>
+      </c>
+      <c r="E115" t="s">
+        <v>250</v>
+      </c>
+      <c r="G115" t="s">
+        <v>100</v>
+      </c>
+      <c r="H115" t="s">
+        <v>34</v>
+      </c>
+      <c r="I115" t="s">
+        <v>17</v>
+      </c>
+      <c r="J115" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="A116" t="s">
+        <v>257</v>
+      </c>
+      <c r="B116" t="s">
+        <v>11</v>
+      </c>
+      <c r="C116" t="s">
+        <v>58</v>
+      </c>
+      <c r="D116" t="s">
+        <v>146</v>
+      </c>
+      <c r="E116" t="s">
+        <v>250</v>
+      </c>
+      <c r="G116" t="s">
+        <v>161</v>
+      </c>
+      <c r="H116" t="s">
+        <v>47</v>
+      </c>
+      <c r="I116" t="s">
+        <v>17</v>
+      </c>
+      <c r="J116" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
+      <c r="A117" t="s">
+        <v>258</v>
+      </c>
+      <c r="B117" t="s">
+        <v>25</v>
+      </c>
+      <c r="C117" t="s">
+        <v>26</v>
+      </c>
+      <c r="D117" t="s">
+        <v>27</v>
+      </c>
+      <c r="E117" t="s">
+        <v>250</v>
+      </c>
+      <c r="G117" t="s">
+        <v>259</v>
+      </c>
+      <c r="H117" t="s">
+        <v>34</v>
+      </c>
+      <c r="I117" t="s">
+        <v>17</v>
+      </c>
+      <c r="J117" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="A118" t="s">
+        <v>260</v>
+      </c>
+      <c r="B118" t="s">
+        <v>25</v>
+      </c>
+      <c r="C118" t="s">
+        <v>26</v>
+      </c>
+      <c r="D118" t="s">
+        <v>27</v>
+      </c>
+      <c r="E118" t="s">
+        <v>250</v>
+      </c>
+      <c r="G118" t="s">
+        <v>261</v>
+      </c>
+      <c r="H118" t="s">
+        <v>34</v>
+      </c>
+      <c r="I118" t="s">
+        <v>17</v>
+      </c>
+      <c r="J118" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="A119" t="s">
+        <v>262</v>
+      </c>
+      <c r="B119" t="s">
+        <v>11</v>
+      </c>
+      <c r="C119" t="s">
+        <v>58</v>
+      </c>
+      <c r="D119" t="s">
+        <v>59</v>
+      </c>
+      <c r="E119" t="s">
+        <v>250</v>
+      </c>
+      <c r="G119" t="s">
+        <v>28</v>
+      </c>
+      <c r="H119" t="s">
+        <v>29</v>
+      </c>
+      <c r="I119" t="s">
+        <v>17</v>
+      </c>
+      <c r="J119" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120" t="s">
+        <v>263</v>
+      </c>
+      <c r="B120" t="s">
+        <v>11</v>
+      </c>
+      <c r="C120" t="s">
+        <v>58</v>
+      </c>
+      <c r="D120" t="s">
+        <v>264</v>
+      </c>
+      <c r="E120" t="s">
+        <v>250</v>
+      </c>
+      <c r="G120" t="s">
+        <v>66</v>
+      </c>
+      <c r="H120" t="s">
+        <v>29</v>
+      </c>
+      <c r="I120" t="s">
+        <v>17</v>
+      </c>
+      <c r="J120" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121" t="s">
+        <v>265</v>
+      </c>
+      <c r="B121" t="s">
+        <v>52</v>
+      </c>
+      <c r="C121" t="s">
+        <v>53</v>
+      </c>
+      <c r="D121" t="s">
+        <v>13</v>
+      </c>
+      <c r="E121" t="s">
+        <v>250</v>
+      </c>
+      <c r="G121" t="s">
+        <v>266</v>
+      </c>
+      <c r="H121" t="s">
+        <v>16</v>
+      </c>
+      <c r="I121" t="s">
+        <v>267</v>
+      </c>
+      <c r="J121" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122" t="s">
+        <v>268</v>
+      </c>
+      <c r="B122" t="s">
+        <v>25</v>
+      </c>
+      <c r="C122" t="s">
+        <v>26</v>
+      </c>
+      <c r="D122" t="s">
+        <v>27</v>
+      </c>
+      <c r="E122" t="s">
+        <v>250</v>
+      </c>
+      <c r="G122" t="s">
+        <v>269</v>
+      </c>
+      <c r="H122" t="s">
+        <v>152</v>
+      </c>
+      <c r="I122" t="s">
+        <v>17</v>
+      </c>
+      <c r="J122" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
+      <c r="A123" t="s">
+        <v>270</v>
+      </c>
+      <c r="B123" t="s">
+        <v>25</v>
+      </c>
+      <c r="C123" t="s">
+        <v>26</v>
+      </c>
+      <c r="D123" t="s">
+        <v>27</v>
+      </c>
+      <c r="E123" t="s">
+        <v>250</v>
+      </c>
+      <c r="G123" t="s">
+        <v>259</v>
+      </c>
+      <c r="H123" t="s">
+        <v>34</v>
+      </c>
+      <c r="I123" t="s">
+        <v>17</v>
+      </c>
+      <c r="J123" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" t="s">
+        <v>271</v>
+      </c>
+      <c r="B124" t="s">
+        <v>52</v>
+      </c>
+      <c r="C124" t="s">
+        <v>53</v>
+      </c>
+      <c r="D124" t="s">
+        <v>13</v>
+      </c>
+      <c r="E124" t="s">
+        <v>250</v>
+      </c>
+      <c r="G124" t="s">
+        <v>272</v>
+      </c>
+      <c r="H124" t="s">
+        <v>16</v>
+      </c>
+      <c r="I124" t="s">
+        <v>273</v>
+      </c>
+      <c r="J124" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125" t="s">
+        <v>274</v>
+      </c>
+      <c r="B125" t="s">
+        <v>11</v>
+      </c>
+      <c r="C125" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125" t="s">
+        <v>27</v>
+      </c>
+      <c r="E125" t="s">
+        <v>250</v>
+      </c>
+      <c r="G125" t="s">
+        <v>275</v>
+      </c>
+      <c r="H125" t="s">
+        <v>34</v>
+      </c>
+      <c r="I125" t="s">
+        <v>17</v>
+      </c>
+      <c r="J125" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126" t="s">
+        <v>276</v>
+      </c>
+      <c r="B126" t="s">
+        <v>11</v>
+      </c>
+      <c r="C126" t="s">
+        <v>58</v>
+      </c>
+      <c r="D126" t="s">
+        <v>277</v>
+      </c>
+      <c r="E126" t="s">
+        <v>250</v>
+      </c>
+      <c r="G126" t="s">
+        <v>83</v>
+      </c>
+      <c r="H126" t="s">
+        <v>29</v>
+      </c>
+      <c r="I126" t="s">
+        <v>17</v>
+      </c>
+      <c r="J126" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127" t="s">
+        <v>278</v>
+      </c>
+      <c r="B127" t="s">
+        <v>11</v>
+      </c>
+      <c r="C127" t="s">
+        <v>12</v>
+      </c>
+      <c r="D127" t="s">
+        <v>124</v>
+      </c>
+      <c r="E127" t="s">
+        <v>250</v>
+      </c>
+      <c r="G127" t="s">
+        <v>279</v>
+      </c>
+      <c r="H127" t="s">
+        <v>152</v>
+      </c>
+      <c r="I127" t="s">
+        <v>17</v>
+      </c>
+      <c r="J127" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="A128" t="s">
+        <v>280</v>
+      </c>
+      <c r="B128" t="s">
+        <v>52</v>
+      </c>
+      <c r="C128" t="s">
+        <v>53</v>
+      </c>
+      <c r="D128" t="s">
+        <v>72</v>
+      </c>
+      <c r="E128" t="s">
+        <v>250</v>
+      </c>
+      <c r="G128" t="s">
+        <v>281</v>
+      </c>
+      <c r="H128" t="s">
+        <v>29</v>
+      </c>
+      <c r="I128" t="s">
+        <v>282</v>
+      </c>
+      <c r="J128" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
+      <c r="A129" t="s">
+        <v>283</v>
+      </c>
+      <c r="B129" t="s">
+        <v>52</v>
+      </c>
+      <c r="C129" t="s">
+        <v>53</v>
+      </c>
+      <c r="D129" t="s">
+        <v>38</v>
+      </c>
+      <c r="E129" t="s">
+        <v>250</v>
+      </c>
+      <c r="G129" t="s">
+        <v>284</v>
+      </c>
+      <c r="H129" t="s">
+        <v>213</v>
+      </c>
+      <c r="I129" t="s">
+        <v>285</v>
+      </c>
+      <c r="J129" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130" t="s">
+        <v>286</v>
+      </c>
+      <c r="B130" t="s">
+        <v>52</v>
+      </c>
+      <c r="C130" t="s">
+        <v>53</v>
+      </c>
+      <c r="D130" t="s">
+        <v>38</v>
+      </c>
+      <c r="E130" t="s">
+        <v>250</v>
+      </c>
+      <c r="G130" t="s">
+        <v>287</v>
+      </c>
+      <c r="H130" t="s">
+        <v>34</v>
+      </c>
+      <c r="I130" t="s">
+        <v>288</v>
+      </c>
+      <c r="J130" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
+      <c r="A131" t="s">
+        <v>289</v>
+      </c>
+      <c r="B131" t="s">
+        <v>11</v>
+      </c>
+      <c r="C131" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131" t="s">
+        <v>19</v>
+      </c>
+      <c r="E131" t="s">
+        <v>250</v>
+      </c>
+      <c r="G131" t="s">
+        <v>119</v>
+      </c>
+      <c r="H131" t="s">
+        <v>16</v>
+      </c>
+      <c r="I131" t="s">
+        <v>17</v>
+      </c>
+      <c r="J131" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
+      <c r="A132" t="s">
+        <v>290</v>
+      </c>
+      <c r="B132" t="s">
+        <v>25</v>
+      </c>
+      <c r="C132" t="s">
+        <v>26</v>
+      </c>
+      <c r="D132" t="s">
+        <v>27</v>
+      </c>
+      <c r="E132" t="s">
+        <v>250</v>
+      </c>
+      <c r="G132" t="s">
+        <v>61</v>
+      </c>
+      <c r="H132" t="s">
+        <v>29</v>
+      </c>
+      <c r="I132" t="s">
+        <v>17</v>
+      </c>
+      <c r="J132" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
+      <c r="A133" t="s">
+        <v>291</v>
+      </c>
+      <c r="B133" t="s">
+        <v>25</v>
+      </c>
+      <c r="C133" t="s">
+        <v>26</v>
+      </c>
+      <c r="D133" t="s">
+        <v>27</v>
+      </c>
+      <c r="E133" t="s">
+        <v>250</v>
+      </c>
+      <c r="G133" t="s">
+        <v>61</v>
+      </c>
+      <c r="H133" t="s">
+        <v>29</v>
+      </c>
+      <c r="I133" t="s">
+        <v>17</v>
+      </c>
+      <c r="J133" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
+      <c r="A134" t="s">
+        <v>292</v>
+      </c>
+      <c r="B134" t="s">
+        <v>25</v>
+      </c>
+      <c r="C134" t="s">
+        <v>26</v>
+      </c>
+      <c r="D134" t="s">
+        <v>27</v>
+      </c>
+      <c r="E134" t="s">
+        <v>250</v>
+      </c>
+      <c r="G134" t="s">
+        <v>61</v>
+      </c>
+      <c r="H134" t="s">
+        <v>29</v>
+      </c>
+      <c r="I134" t="s">
+        <v>17</v>
+      </c>
+      <c r="J134" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
+      <c r="A135" t="s">
+        <v>293</v>
+      </c>
+      <c r="B135" t="s">
+        <v>25</v>
+      </c>
+      <c r="C135" t="s">
+        <v>26</v>
+      </c>
+      <c r="D135" t="s">
+        <v>27</v>
+      </c>
+      <c r="E135" t="s">
+        <v>250</v>
+      </c>
+      <c r="G135" t="s">
+        <v>61</v>
+      </c>
+      <c r="H135" t="s">
+        <v>29</v>
+      </c>
+      <c r="I135" t="s">
+        <v>17</v>
+      </c>
+      <c r="J135" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
+      <c r="A136" t="s">
+        <v>294</v>
+      </c>
+      <c r="B136" t="s">
+        <v>25</v>
+      </c>
+      <c r="C136" t="s">
+        <v>26</v>
+      </c>
+      <c r="D136" t="s">
+        <v>27</v>
+      </c>
+      <c r="E136" t="s">
+        <v>250</v>
+      </c>
+      <c r="G136" t="s">
+        <v>61</v>
+      </c>
+      <c r="H136" t="s">
+        <v>29</v>
+      </c>
+      <c r="I136" t="s">
+        <v>17</v>
+      </c>
+      <c r="J136" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
+      <c r="A137" t="s">
+        <v>295</v>
+      </c>
+      <c r="B137" t="s">
+        <v>25</v>
+      </c>
+      <c r="C137" t="s">
+        <v>26</v>
+      </c>
+      <c r="D137" t="s">
+        <v>27</v>
+      </c>
+      <c r="E137" t="s">
+        <v>250</v>
+      </c>
+      <c r="G137" t="s">
+        <v>221</v>
+      </c>
+      <c r="H137" t="s">
+        <v>47</v>
+      </c>
+      <c r="I137" t="s">
+        <v>17</v>
+      </c>
+      <c r="J137" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
+      <c r="A138" t="s">
+        <v>296</v>
+      </c>
+      <c r="B138" t="s">
+        <v>11</v>
+      </c>
+      <c r="C138" t="s">
+        <v>58</v>
+      </c>
+      <c r="D138" t="s">
+        <v>200</v>
+      </c>
+      <c r="E138" t="s">
+        <v>250</v>
+      </c>
+      <c r="G138" t="s">
+        <v>63</v>
+      </c>
+      <c r="H138" t="s">
+        <v>47</v>
+      </c>
+      <c r="I138" t="s">
+        <v>17</v>
+      </c>
+      <c r="J138" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
+      <c r="A139" t="s">
+        <v>297</v>
+      </c>
+      <c r="B139" t="s">
+        <v>11</v>
+      </c>
+      <c r="C139" t="s">
+        <v>58</v>
+      </c>
+      <c r="D139" t="s">
+        <v>72</v>
+      </c>
+      <c r="E139" t="s">
+        <v>250</v>
+      </c>
+      <c r="G139" t="s">
+        <v>88</v>
+      </c>
+      <c r="H139" t="s">
+        <v>29</v>
+      </c>
+      <c r="I139" t="s">
+        <v>17</v>
+      </c>
+      <c r="J139" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
+      <c r="A140" t="s">
+        <v>298</v>
+      </c>
+      <c r="B140" t="s">
+        <v>52</v>
+      </c>
+      <c r="C140" t="s">
+        <v>53</v>
+      </c>
+      <c r="D140" t="s">
+        <v>124</v>
+      </c>
+      <c r="E140" t="s">
+        <v>250</v>
+      </c>
+      <c r="G140" t="s">
+        <v>125</v>
+      </c>
+      <c r="H140" t="s">
+        <v>47</v>
+      </c>
+      <c r="I140" t="s">
+        <v>299</v>
+      </c>
+      <c r="J140" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
+      <c r="A141" t="s">
+        <v>300</v>
+      </c>
+      <c r="B141" t="s">
+        <v>52</v>
+      </c>
+      <c r="C141" t="s">
+        <v>301</v>
+      </c>
+      <c r="D141" t="s">
+        <v>302</v>
+      </c>
+      <c r="E141" t="s">
+        <v>250</v>
+      </c>
+      <c r="G141" t="s">
+        <v>125</v>
+      </c>
+      <c r="H141" t="s">
+        <v>47</v>
+      </c>
+      <c r="I141" t="s">
+        <v>303</v>
+      </c>
+      <c r="J141" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
+      <c r="A142" t="s">
+        <v>304</v>
+      </c>
+      <c r="B142" t="s">
+        <v>52</v>
+      </c>
+      <c r="C142" t="s">
+        <v>53</v>
+      </c>
+      <c r="D142" t="s">
+        <v>13</v>
+      </c>
+      <c r="E142" t="s">
+        <v>250</v>
+      </c>
+      <c r="G142" t="s">
+        <v>228</v>
+      </c>
+      <c r="H142" t="s">
+        <v>16</v>
+      </c>
+      <c r="I142" t="s">
+        <v>305</v>
+      </c>
+      <c r="J142" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
+      <c r="A143" t="s">
+        <v>306</v>
+      </c>
+      <c r="B143" t="s">
+        <v>11</v>
+      </c>
+      <c r="C143" t="s">
+        <v>12</v>
+      </c>
+      <c r="D143" t="s">
+        <v>27</v>
+      </c>
+      <c r="E143" t="s">
+        <v>250</v>
+      </c>
+      <c r="G143" t="s">
+        <v>307</v>
+      </c>
+      <c r="H143" t="s">
+        <v>47</v>
+      </c>
+      <c r="I143" t="s">
+        <v>17</v>
+      </c>
+      <c r="J143" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
+      <c r="A144" t="s">
+        <v>308</v>
+      </c>
+      <c r="B144" t="s">
+        <v>11</v>
+      </c>
+      <c r="C144" t="s">
+        <v>58</v>
+      </c>
+      <c r="D144" t="s">
+        <v>309</v>
+      </c>
+      <c r="E144" t="s">
+        <v>250</v>
+      </c>
+      <c r="G144" t="s">
+        <v>310</v>
+      </c>
+      <c r="H144" t="s">
+        <v>47</v>
+      </c>
+      <c r="I144" t="s">
+        <v>17</v>
+      </c>
+      <c r="J144" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
+      <c r="A145" t="s">
+        <v>311</v>
+      </c>
+      <c r="B145" t="s">
+        <v>52</v>
+      </c>
+      <c r="C145" t="s">
+        <v>53</v>
+      </c>
+      <c r="D145" t="s">
+        <v>38</v>
+      </c>
+      <c r="E145" t="s">
+        <v>250</v>
+      </c>
+      <c r="G145" t="s">
+        <v>284</v>
+      </c>
+      <c r="H145" t="s">
+        <v>213</v>
+      </c>
+      <c r="I145" t="s">
+        <v>312</v>
+      </c>
+      <c r="J145" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
+      <c r="A146" t="s">
+        <v>313</v>
+      </c>
+      <c r="B146" t="s">
+        <v>52</v>
+      </c>
+      <c r="C146" t="s">
+        <v>53</v>
+      </c>
+      <c r="D146" t="s">
+        <v>124</v>
+      </c>
+      <c r="E146" t="s">
+        <v>250</v>
+      </c>
+      <c r="G146" t="s">
+        <v>221</v>
+      </c>
+      <c r="H146" t="s">
+        <v>47</v>
+      </c>
+      <c r="I146" t="s">
+        <v>314</v>
+      </c>
+      <c r="J146" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
+      <c r="A147" t="s">
+        <v>315</v>
+      </c>
+      <c r="B147" t="s">
+        <v>11</v>
+      </c>
+      <c r="C147" t="s">
+        <v>12</v>
+      </c>
+      <c r="D147" t="s">
+        <v>38</v>
+      </c>
+      <c r="E147" t="s">
+        <v>250</v>
+      </c>
+      <c r="G147" t="s">
+        <v>61</v>
+      </c>
+      <c r="H147" t="s">
+        <v>29</v>
+      </c>
+      <c r="I147" t="s">
+        <v>17</v>
+      </c>
+      <c r="J147" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
+      <c r="A148" t="s">
+        <v>316</v>
+      </c>
+      <c r="B148" t="s">
+        <v>11</v>
+      </c>
+      <c r="C148" t="s">
+        <v>12</v>
+      </c>
+      <c r="D148" t="s">
+        <v>302</v>
+      </c>
+      <c r="E148" t="s">
+        <v>250</v>
+      </c>
+      <c r="G148" t="s">
+        <v>317</v>
+      </c>
+      <c r="H148" t="s">
+        <v>47</v>
+      </c>
+      <c r="I148" t="s">
+        <v>17</v>
+      </c>
+      <c r="J148" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
+      <c r="A149" t="s">
+        <v>318</v>
+      </c>
+      <c r="B149" t="s">
+        <v>25</v>
+      </c>
+      <c r="C149" t="s">
+        <v>26</v>
+      </c>
+      <c r="D149" t="s">
+        <v>27</v>
+      </c>
+      <c r="E149" t="s">
+        <v>250</v>
+      </c>
+      <c r="G149" t="s">
+        <v>319</v>
+      </c>
+      <c r="H149" t="s">
+        <v>29</v>
+      </c>
+      <c r="I149" t="s">
+        <v>17</v>
+      </c>
+      <c r="J149" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
+      <c r="A150" t="s">
+        <v>320</v>
+      </c>
+      <c r="B150" t="s">
+        <v>11</v>
+      </c>
+      <c r="C150" t="s">
+        <v>12</v>
+      </c>
+      <c r="D150" t="s">
+        <v>38</v>
+      </c>
+      <c r="E150" t="s">
+        <v>250</v>
+      </c>
+      <c r="G150" t="s">
+        <v>269</v>
+      </c>
+      <c r="H150" t="s">
+        <v>152</v>
+      </c>
+      <c r="I150" t="s">
+        <v>17</v>
+      </c>
+      <c r="J150" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
+      <c r="A151" t="s">
+        <v>321</v>
+      </c>
+      <c r="B151" t="s">
+        <v>52</v>
+      </c>
+      <c r="C151" t="s">
+        <v>53</v>
+      </c>
+      <c r="D151" t="s">
+        <v>124</v>
+      </c>
+      <c r="E151" t="s">
+        <v>250</v>
+      </c>
+      <c r="G151" t="s">
+        <v>125</v>
+      </c>
+      <c r="H151" t="s">
+        <v>47</v>
+      </c>
+      <c r="I151" t="s">
+        <v>322</v>
+      </c>
+      <c r="J151" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
+      <c r="A152" t="s">
+        <v>323</v>
+      </c>
+      <c r="B152" t="s">
+        <v>11</v>
+      </c>
+      <c r="C152" t="s">
+        <v>12</v>
+      </c>
+      <c r="D152" t="s">
+        <v>197</v>
+      </c>
+      <c r="E152" t="s">
+        <v>250</v>
+      </c>
+      <c r="G152" t="s">
+        <v>161</v>
+      </c>
+      <c r="H152" t="s">
+        <v>47</v>
+      </c>
+      <c r="I152" t="s">
+        <v>17</v>
+      </c>
+      <c r="J152" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
+      <c r="A153" t="s">
+        <v>324</v>
+      </c>
+      <c r="B153" t="s">
+        <v>11</v>
+      </c>
+      <c r="C153" t="s">
+        <v>58</v>
+      </c>
+      <c r="D153" t="s">
+        <v>325</v>
+      </c>
+      <c r="E153" t="s">
+        <v>250</v>
+      </c>
+      <c r="G153" t="s">
+        <v>326</v>
+      </c>
+      <c r="H153" t="s">
+        <v>47</v>
+      </c>
+      <c r="I153" t="s">
+        <v>17</v>
+      </c>
+      <c r="J153" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
+      <c r="A154" t="s">
+        <v>327</v>
+      </c>
+      <c r="B154" t="s">
+        <v>52</v>
+      </c>
+      <c r="C154" t="s">
+        <v>53</v>
+      </c>
+      <c r="D154" t="s">
+        <v>124</v>
+      </c>
+      <c r="E154" t="s">
+        <v>250</v>
+      </c>
+      <c r="G154" t="s">
+        <v>125</v>
+      </c>
+      <c r="H154" t="s">
+        <v>47</v>
+      </c>
+      <c r="I154" t="s">
+        <v>328</v>
+      </c>
+      <c r="J154" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
+      <c r="A155" t="s">
+        <v>329</v>
+      </c>
+      <c r="B155" t="s">
+        <v>52</v>
+      </c>
+      <c r="C155" t="s">
+        <v>53</v>
+      </c>
+      <c r="D155" t="s">
+        <v>19</v>
+      </c>
+      <c r="E155" t="s">
+        <v>250</v>
+      </c>
+      <c r="G155" t="s">
+        <v>330</v>
+      </c>
+      <c r="H155" t="s">
+        <v>16</v>
+      </c>
+      <c r="I155" t="s">
+        <v>231</v>
+      </c>
+      <c r="J155" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
+      <c r="A156" t="s">
+        <v>331</v>
+      </c>
+      <c r="B156" t="s">
+        <v>11</v>
+      </c>
+      <c r="C156" t="s">
+        <v>58</v>
+      </c>
+      <c r="D156" t="s">
+        <v>309</v>
+      </c>
+      <c r="E156" t="s">
+        <v>250</v>
+      </c>
+      <c r="G156" t="s">
+        <v>310</v>
+      </c>
+      <c r="H156" t="s">
+        <v>47</v>
+      </c>
+      <c r="I156" t="s">
+        <v>17</v>
+      </c>
+      <c r="J156" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
+      <c r="A157" t="s">
+        <v>332</v>
+      </c>
+      <c r="B157" t="s">
+        <v>11</v>
+      </c>
+      <c r="C157" t="s">
+        <v>12</v>
+      </c>
+      <c r="D157" t="s">
+        <v>333</v>
+      </c>
+      <c r="E157" t="s">
+        <v>250</v>
+      </c>
+      <c r="G157" t="s">
+        <v>334</v>
+      </c>
+      <c r="H157" t="s">
+        <v>16</v>
+      </c>
+      <c r="I157" t="s">
+        <v>17</v>
+      </c>
+      <c r="J157" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
+      <c r="A158" t="s">
+        <v>335</v>
+      </c>
+      <c r="B158" t="s">
+        <v>11</v>
+      </c>
+      <c r="C158" t="s">
+        <v>58</v>
+      </c>
+      <c r="D158" t="s">
+        <v>121</v>
+      </c>
+      <c r="E158" t="s">
+        <v>336</v>
+      </c>
+      <c r="G158" t="s">
+        <v>210</v>
+      </c>
+      <c r="H158" t="s">
+        <v>29</v>
+      </c>
+      <c r="I158" t="s">
+        <v>17</v>
+      </c>
+      <c r="J158" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
+      <c r="A159" t="s">
+        <v>337</v>
+      </c>
+      <c r="B159" t="s">
+        <v>52</v>
+      </c>
+      <c r="C159" t="s">
+        <v>53</v>
+      </c>
+      <c r="D159" t="s">
+        <v>218</v>
+      </c>
+      <c r="E159" t="s">
+        <v>336</v>
+      </c>
+      <c r="G159" t="s">
+        <v>245</v>
+      </c>
+      <c r="H159" t="s">
+        <v>16</v>
+      </c>
+      <c r="I159" t="s">
+        <v>246</v>
+      </c>
+      <c r="J159" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
+      <c r="A160" t="s">
+        <v>338</v>
+      </c>
+      <c r="B160" t="s">
+        <v>11</v>
+      </c>
+      <c r="C160" t="s">
+        <v>58</v>
+      </c>
+      <c r="D160" t="s">
+        <v>200</v>
+      </c>
+      <c r="E160" t="s">
+        <v>336</v>
+      </c>
+      <c r="G160" t="s">
+        <v>63</v>
+      </c>
+      <c r="H160" t="s">
+        <v>47</v>
+      </c>
+      <c r="I160" t="s">
+        <v>17</v>
+      </c>
+      <c r="J160" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
+      <c r="A161" t="s">
+        <v>339</v>
+      </c>
+      <c r="B161" t="s">
+        <v>11</v>
+      </c>
+      <c r="C161" t="s">
+        <v>58</v>
+      </c>
+      <c r="D161" t="s">
+        <v>340</v>
+      </c>
+      <c r="E161" t="s">
+        <v>336</v>
+      </c>
+      <c r="G161" t="s">
+        <v>172</v>
+      </c>
+      <c r="H161" t="s">
+        <v>29</v>
+      </c>
+      <c r="I161" t="s">
+        <v>17</v>
+      </c>
+      <c r="J161" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
+      <c r="A162" t="s">
+        <v>341</v>
+      </c>
+      <c r="B162" t="s">
+        <v>11</v>
+      </c>
+      <c r="C162" t="s">
+        <v>58</v>
+      </c>
+      <c r="D162" t="s">
+        <v>140</v>
+      </c>
+      <c r="E162" t="s">
+        <v>336</v>
+      </c>
+      <c r="G162" t="s">
+        <v>342</v>
+      </c>
+      <c r="H162" t="s">
+        <v>70</v>
+      </c>
+      <c r="I162" t="s">
+        <v>17</v>
+      </c>
+      <c r="J162" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
+      <c r="A163" t="s">
+        <v>343</v>
+      </c>
+      <c r="B163" t="s">
+        <v>11</v>
+      </c>
+      <c r="C163" t="s">
+        <v>58</v>
+      </c>
+      <c r="D163" t="s">
+        <v>140</v>
+      </c>
+      <c r="E163" t="s">
+        <v>336</v>
+      </c>
+      <c r="G163" t="s">
+        <v>210</v>
+      </c>
+      <c r="H163" t="s">
+        <v>29</v>
+      </c>
+      <c r="I163" t="s">
+        <v>17</v>
+      </c>
+      <c r="J163" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
+      <c r="A164" t="s">
+        <v>344</v>
+      </c>
+      <c r="B164" t="s">
+        <v>11</v>
+      </c>
+      <c r="C164" t="s">
+        <v>12</v>
+      </c>
+      <c r="D164" t="s">
+        <v>19</v>
+      </c>
+      <c r="E164" t="s">
+        <v>336</v>
+      </c>
+      <c r="G164" t="s">
+        <v>345</v>
+      </c>
+      <c r="H164" t="s">
+        <v>16</v>
+      </c>
+      <c r="I164" t="s">
+        <v>17</v>
+      </c>
+      <c r="J164" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
+      <c r="A165" t="s">
+        <v>346</v>
+      </c>
+      <c r="B165" t="s">
+        <v>11</v>
+      </c>
+      <c r="C165" t="s">
+        <v>12</v>
+      </c>
+      <c r="D165" t="s">
+        <v>38</v>
+      </c>
+      <c r="E165" t="s">
+        <v>336</v>
+      </c>
+      <c r="G165" t="s">
+        <v>347</v>
+      </c>
+      <c r="H165" t="s">
+        <v>34</v>
+      </c>
+      <c r="I165" t="s">
+        <v>17</v>
+      </c>
+      <c r="J165" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
+      <c r="A166" t="s">
+        <v>348</v>
+      </c>
+      <c r="B166" t="s">
+        <v>11</v>
+      </c>
+      <c r="C166" t="s">
+        <v>58</v>
+      </c>
+      <c r="D166" t="s">
+        <v>349</v>
+      </c>
+      <c r="E166" t="s">
+        <v>336</v>
+      </c>
+      <c r="G166" t="s">
+        <v>100</v>
+      </c>
+      <c r="H166" t="s">
+        <v>34</v>
+      </c>
+      <c r="I166" t="s">
+        <v>17</v>
+      </c>
+      <c r="J166" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
+      <c r="A167" t="s">
+        <v>350</v>
+      </c>
+      <c r="B167" t="s">
+        <v>11</v>
+      </c>
+      <c r="C167" t="s">
+        <v>12</v>
+      </c>
+      <c r="D167" t="s">
+        <v>38</v>
+      </c>
+      <c r="E167" t="s">
+        <v>336</v>
+      </c>
+      <c r="G167" t="s">
+        <v>259</v>
+      </c>
+      <c r="H167" t="s">
+        <v>34</v>
+      </c>
+      <c r="I167" t="s">
+        <v>17</v>
+      </c>
+      <c r="J167" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
+      <c r="A168" t="s">
+        <v>351</v>
+      </c>
+      <c r="B168" t="s">
+        <v>52</v>
+      </c>
+      <c r="C168" t="s">
+        <v>53</v>
+      </c>
+      <c r="D168" t="s">
+        <v>13</v>
+      </c>
+      <c r="E168" t="s">
+        <v>336</v>
+      </c>
+      <c r="G168" t="s">
+        <v>272</v>
+      </c>
+      <c r="H168" t="s">
+        <v>16</v>
+      </c>
+      <c r="I168" t="s">
+        <v>352</v>
+      </c>
+      <c r="J168" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
+      <c r="A169" t="s">
+        <v>353</v>
+      </c>
+      <c r="B169" t="s">
+        <v>11</v>
+      </c>
+      <c r="C169" t="s">
+        <v>12</v>
+      </c>
+      <c r="D169" t="s">
+        <v>19</v>
+      </c>
+      <c r="E169" t="s">
+        <v>336</v>
+      </c>
+      <c r="G169" t="s">
+        <v>330</v>
+      </c>
+      <c r="H169" t="s">
+        <v>16</v>
+      </c>
+      <c r="I169" t="s">
+        <v>17</v>
+      </c>
+      <c r="J169" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
+      <c r="A170" t="s">
+        <v>354</v>
+      </c>
+      <c r="B170" t="s">
+        <v>52</v>
+      </c>
+      <c r="C170" t="s">
+        <v>53</v>
+      </c>
+      <c r="D170" t="s">
+        <v>140</v>
+      </c>
+      <c r="E170" t="s">
+        <v>336</v>
+      </c>
+      <c r="G170" t="s">
+        <v>28</v>
+      </c>
+      <c r="H170" t="s">
+        <v>29</v>
+      </c>
+      <c r="I170" t="s">
+        <v>355</v>
+      </c>
+      <c r="J170" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
+      <c r="A171" t="s">
+        <v>356</v>
+      </c>
+      <c r="B171" t="s">
+        <v>11</v>
+      </c>
+      <c r="C171" t="s">
+        <v>58</v>
+      </c>
+      <c r="D171" t="s">
+        <v>165</v>
+      </c>
+      <c r="E171" t="s">
+        <v>336</v>
+      </c>
+      <c r="G171" t="s">
+        <v>166</v>
+      </c>
+      <c r="H171" t="s">
+        <v>47</v>
+      </c>
+      <c r="I171" t="s">
+        <v>17</v>
+      </c>
+      <c r="J171" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
+      <c r="A172" t="s">
+        <v>357</v>
+      </c>
+      <c r="B172" t="s">
+        <v>52</v>
+      </c>
+      <c r="C172" t="s">
+        <v>53</v>
+      </c>
+      <c r="D172" t="s">
+        <v>72</v>
+      </c>
+      <c r="E172" t="s">
+        <v>336</v>
+      </c>
+      <c r="G172" t="s">
+        <v>163</v>
+      </c>
+      <c r="H172" t="s">
+        <v>34</v>
+      </c>
+      <c r="I172" t="s">
+        <v>358</v>
+      </c>
+      <c r="J172" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
+      <c r="A173" t="s">
+        <v>359</v>
+      </c>
+      <c r="B173" t="s">
+        <v>52</v>
+      </c>
+      <c r="C173" t="s">
+        <v>53</v>
+      </c>
+      <c r="D173" t="s">
+        <v>13</v>
+      </c>
+      <c r="E173" t="s">
+        <v>336</v>
+      </c>
+      <c r="G173" t="s">
+        <v>360</v>
+      </c>
+      <c r="H173" t="s">
+        <v>16</v>
+      </c>
+      <c r="I173" t="s">
+        <v>361</v>
+      </c>
+      <c r="J173" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
+      <c r="A174" t="s">
+        <v>362</v>
+      </c>
+      <c r="B174" t="s">
+        <v>52</v>
+      </c>
+      <c r="C174" t="s">
+        <v>53</v>
+      </c>
+      <c r="D174" t="s">
+        <v>38</v>
+      </c>
+      <c r="E174" t="s">
+        <v>336</v>
+      </c>
+      <c r="G174" t="s">
+        <v>275</v>
+      </c>
+      <c r="H174" t="s">
+        <v>34</v>
+      </c>
+      <c r="I174" t="s">
+        <v>363</v>
+      </c>
+      <c r="J174" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
+      <c r="A175" t="s">
+        <v>364</v>
+      </c>
+      <c r="B175" t="s">
+        <v>11</v>
+      </c>
+      <c r="C175" t="s">
+        <v>58</v>
+      </c>
+      <c r="D175" t="s">
+        <v>200</v>
+      </c>
+      <c r="E175" t="s">
+        <v>336</v>
+      </c>
+      <c r="G175" t="s">
+        <v>63</v>
+      </c>
+      <c r="H175" t="s">
+        <v>47</v>
+      </c>
+      <c r="I175" t="s">
+        <v>17</v>
+      </c>
+      <c r="J175" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
+      <c r="A176" t="s">
+        <v>365</v>
+      </c>
+      <c r="B176" t="s">
+        <v>11</v>
+      </c>
+      <c r="C176" t="s">
+        <v>58</v>
+      </c>
+      <c r="D176" t="s">
+        <v>146</v>
+      </c>
+      <c r="E176" t="s">
+        <v>336</v>
+      </c>
+      <c r="G176" t="s">
+        <v>366</v>
+      </c>
+      <c r="H176" t="s">
+        <v>47</v>
+      </c>
+      <c r="I176" t="s">
+        <v>17</v>
+      </c>
+      <c r="J176" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
+      <c r="A177" t="s">
+        <v>367</v>
+      </c>
+      <c r="B177" t="s">
+        <v>11</v>
+      </c>
+      <c r="C177" t="s">
+        <v>58</v>
+      </c>
+      <c r="D177" t="s">
+        <v>165</v>
+      </c>
+      <c r="E177" t="s">
+        <v>336</v>
+      </c>
+      <c r="G177" t="s">
+        <v>166</v>
+      </c>
+      <c r="H177" t="s">
+        <v>47</v>
+      </c>
+      <c r="I177" t="s">
+        <v>17</v>
+      </c>
+      <c r="J177" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
+      <c r="A178" t="s">
+        <v>368</v>
+      </c>
+      <c r="B178" t="s">
+        <v>11</v>
+      </c>
+      <c r="C178" t="s">
+        <v>58</v>
+      </c>
+      <c r="D178" t="s">
+        <v>369</v>
+      </c>
+      <c r="E178" t="s">
+        <v>336</v>
+      </c>
+      <c r="G178" t="s">
+        <v>370</v>
+      </c>
+      <c r="H178" t="s">
+        <v>29</v>
+      </c>
+      <c r="I178" t="s">
+        <v>17</v>
+      </c>
+      <c r="J178" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
+      <c r="A179" t="s">
+        <v>371</v>
+      </c>
+      <c r="B179" t="s">
+        <v>52</v>
+      </c>
+      <c r="C179" t="s">
+        <v>53</v>
+      </c>
+      <c r="D179" t="s">
+        <v>171</v>
+      </c>
+      <c r="E179" t="s">
+        <v>336</v>
+      </c>
+      <c r="G179" t="s">
+        <v>372</v>
+      </c>
+      <c r="H179" t="s">
+        <v>29</v>
+      </c>
+      <c r="I179" t="s">
+        <v>373</v>
+      </c>
+      <c r="J179" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
+      <c r="A180" t="s">
+        <v>374</v>
+      </c>
+      <c r="B180" t="s">
+        <v>52</v>
+      </c>
+      <c r="C180" t="s">
+        <v>53</v>
+      </c>
+      <c r="D180" t="s">
+        <v>13</v>
+      </c>
+      <c r="E180" t="s">
+        <v>336</v>
+      </c>
+      <c r="G180" t="s">
+        <v>272</v>
+      </c>
+      <c r="H180" t="s">
+        <v>16</v>
+      </c>
+      <c r="I180" t="s">
+        <v>375</v>
+      </c>
+      <c r="J180" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
+      <c r="A181" t="s">
+        <v>376</v>
+      </c>
+      <c r="B181" t="s">
+        <v>52</v>
+      </c>
+      <c r="C181" t="s">
+        <v>53</v>
+      </c>
+      <c r="D181" t="s">
+        <v>19</v>
+      </c>
+      <c r="E181" t="s">
+        <v>336</v>
+      </c>
+      <c r="G181" t="s">
+        <v>41</v>
+      </c>
+      <c r="H181" t="s">
+        <v>16</v>
+      </c>
+      <c r="I181" t="s">
+        <v>377</v>
+      </c>
+      <c r="J181" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
+      <c r="A182" t="s">
+        <v>378</v>
+      </c>
+      <c r="B182" t="s">
+        <v>52</v>
+      </c>
+      <c r="C182" t="s">
+        <v>53</v>
+      </c>
+      <c r="D182" t="s">
+        <v>218</v>
+      </c>
+      <c r="E182" t="s">
+        <v>336</v>
+      </c>
+      <c r="G182" t="s">
+        <v>221</v>
+      </c>
+      <c r="H182" t="s">
+        <v>47</v>
+      </c>
+      <c r="I182" t="s">
+        <v>379</v>
+      </c>
+      <c r="J182" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
+      <c r="A183" t="s">
+        <v>380</v>
+      </c>
+      <c r="B183" t="s">
+        <v>52</v>
+      </c>
+      <c r="C183" t="s">
+        <v>53</v>
+      </c>
+      <c r="D183" t="s">
+        <v>59</v>
+      </c>
+      <c r="E183" t="s">
+        <v>336</v>
+      </c>
+      <c r="G183" t="s">
+        <v>381</v>
+      </c>
+      <c r="H183" t="s">
+        <v>29</v>
+      </c>
+      <c r="I183" t="s">
+        <v>382</v>
+      </c>
+      <c r="J183" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
+      <c r="A184" t="s">
+        <v>383</v>
+      </c>
+      <c r="B184" t="s">
+        <v>11</v>
+      </c>
+      <c r="C184" t="s">
+        <v>58</v>
+      </c>
+      <c r="D184" t="s">
+        <v>384</v>
+      </c>
+      <c r="E184" t="s">
+        <v>336</v>
+      </c>
+      <c r="G184" t="s">
+        <v>185</v>
+      </c>
+      <c r="H184" t="s">
+        <v>29</v>
+      </c>
+      <c r="I184" t="s">
+        <v>17</v>
+      </c>
+      <c r="J184" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
+      <c r="A185" t="s">
+        <v>385</v>
+      </c>
+      <c r="B185" t="s">
+        <v>52</v>
+      </c>
+      <c r="C185" t="s">
+        <v>53</v>
+      </c>
+      <c r="D185" t="s">
+        <v>140</v>
+      </c>
+      <c r="E185" t="s">
+        <v>336</v>
+      </c>
+      <c r="G185" t="s">
+        <v>281</v>
+      </c>
+      <c r="H185" t="s">
+        <v>29</v>
+      </c>
+      <c r="I185" t="s">
+        <v>386</v>
+      </c>
+      <c r="J185" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
+      <c r="A186" t="s">
+        <v>387</v>
+      </c>
+      <c r="B186" t="s">
+        <v>52</v>
+      </c>
+      <c r="C186" t="s">
+        <v>53</v>
+      </c>
+      <c r="D186" t="s">
+        <v>388</v>
+      </c>
+      <c r="E186" t="s">
+        <v>336</v>
+      </c>
+      <c r="G186" t="s">
+        <v>389</v>
+      </c>
+      <c r="H186" t="s">
+        <v>34</v>
+      </c>
+      <c r="I186" t="s">
+        <v>355</v>
+      </c>
+      <c r="J186" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
+      <c r="A187" t="s">
+        <v>390</v>
+      </c>
+      <c r="B187" t="s">
+        <v>11</v>
+      </c>
+      <c r="C187" t="s">
+        <v>12</v>
+      </c>
+      <c r="D187" t="s">
+        <v>105</v>
+      </c>
+      <c r="E187" t="s">
+        <v>336</v>
+      </c>
+      <c r="G187" t="s">
+        <v>391</v>
+      </c>
+      <c r="H187" t="s">
+        <v>16</v>
+      </c>
+      <c r="I187" t="s">
+        <v>17</v>
+      </c>
+      <c r="J187" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
+      <c r="A188" t="s">
+        <v>392</v>
+      </c>
+      <c r="B188" t="s">
+        <v>11</v>
+      </c>
+      <c r="C188" t="s">
+        <v>58</v>
+      </c>
+      <c r="D188" t="s">
+        <v>121</v>
+      </c>
+      <c r="E188" t="s">
+        <v>336</v>
+      </c>
+      <c r="G188" t="s">
+        <v>76</v>
+      </c>
+      <c r="H188" t="s">
+        <v>29</v>
+      </c>
+      <c r="I188" t="s">
+        <v>17</v>
+      </c>
+      <c r="J188" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
+      <c r="A189" t="s">
+        <v>393</v>
+      </c>
+      <c r="B189" t="s">
+        <v>11</v>
+      </c>
+      <c r="C189" t="s">
+        <v>12</v>
+      </c>
+      <c r="D189" t="s">
+        <v>27</v>
+      </c>
+      <c r="E189" t="s">
+        <v>336</v>
+      </c>
+      <c r="G189" t="s">
+        <v>76</v>
+      </c>
+      <c r="H189" t="s">
+        <v>29</v>
+      </c>
+      <c r="I189" t="s">
+        <v>17</v>
+      </c>
+      <c r="J189" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
+      <c r="A190" t="s">
+        <v>394</v>
+      </c>
+      <c r="B190" t="s">
+        <v>11</v>
+      </c>
+      <c r="C190" t="s">
+        <v>12</v>
+      </c>
+      <c r="D190" t="s">
+        <v>27</v>
+      </c>
+      <c r="E190" t="s">
+        <v>336</v>
+      </c>
+      <c r="G190" t="s">
+        <v>76</v>
+      </c>
+      <c r="H190" t="s">
+        <v>29</v>
+      </c>
+      <c r="I190" t="s">
+        <v>17</v>
+      </c>
+      <c r="J190" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
+      <c r="A191" t="s">
+        <v>395</v>
+      </c>
+      <c r="B191" t="s">
+        <v>52</v>
+      </c>
+      <c r="C191" t="s">
+        <v>53</v>
+      </c>
+      <c r="D191" t="s">
+        <v>218</v>
+      </c>
+      <c r="E191" t="s">
+        <v>336</v>
+      </c>
+      <c r="G191" t="s">
+        <v>334</v>
+      </c>
+      <c r="H191" t="s">
+        <v>16</v>
+      </c>
+      <c r="I191" t="s">
+        <v>396</v>
+      </c>
+      <c r="J191" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
+      <c r="A192" t="s">
+        <v>397</v>
+      </c>
+      <c r="B192" t="s">
+        <v>11</v>
+      </c>
+      <c r="C192" t="s">
+        <v>12</v>
+      </c>
+      <c r="D192" t="s">
+        <v>27</v>
+      </c>
+      <c r="E192" t="s">
+        <v>336</v>
+      </c>
+      <c r="G192" t="s">
+        <v>269</v>
+      </c>
+      <c r="H192" t="s">
+        <v>152</v>
+      </c>
+      <c r="I192" t="s">
+        <v>17</v>
+      </c>
+      <c r="J192" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
+      <c r="A193" t="s">
+        <v>398</v>
+      </c>
+      <c r="B193" t="s">
+        <v>11</v>
+      </c>
+      <c r="C193" t="s">
+        <v>58</v>
+      </c>
+      <c r="D193" t="s">
+        <v>165</v>
+      </c>
+      <c r="E193" t="s">
+        <v>336</v>
+      </c>
+      <c r="G193" t="s">
+        <v>166</v>
+      </c>
+      <c r="H193" t="s">
+        <v>47</v>
+      </c>
+      <c r="I193" t="s">
+        <v>17</v>
+      </c>
+      <c r="J193" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
+      <c r="A194" t="s">
+        <v>399</v>
+      </c>
+      <c r="B194" t="s">
+        <v>52</v>
+      </c>
+      <c r="C194" t="s">
+        <v>53</v>
+      </c>
+      <c r="D194" t="s">
+        <v>134</v>
+      </c>
+      <c r="E194" t="s">
+        <v>400</v>
+      </c>
+      <c r="G194" t="s">
+        <v>401</v>
+      </c>
+      <c r="H194" t="s">
+        <v>34</v>
+      </c>
+      <c r="I194" t="s">
+        <v>402</v>
+      </c>
+      <c r="J194" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
+      <c r="A195" t="s">
+        <v>403</v>
+      </c>
+      <c r="B195" t="s">
+        <v>11</v>
+      </c>
+      <c r="C195" t="s">
+        <v>58</v>
+      </c>
+      <c r="D195" t="s">
+        <v>404</v>
+      </c>
+      <c r="E195" t="s">
+        <v>400</v>
+      </c>
+      <c r="G195" t="s">
+        <v>405</v>
+      </c>
+      <c r="H195" t="s">
+        <v>47</v>
+      </c>
+      <c r="I195" t="s">
+        <v>17</v>
+      </c>
+      <c r="J195" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
+      <c r="A196" t="s">
+        <v>406</v>
+      </c>
+      <c r="B196" t="s">
+        <v>52</v>
+      </c>
+      <c r="C196" t="s">
+        <v>53</v>
+      </c>
+      <c r="D196" t="s">
+        <v>105</v>
+      </c>
+      <c r="E196" t="s">
+        <v>407</v>
+      </c>
+      <c r="G196" t="s">
+        <v>106</v>
+      </c>
+      <c r="H196" t="s">
+        <v>16</v>
+      </c>
+      <c r="I196" t="s">
+        <v>408</v>
+      </c>
+      <c r="J196" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
+      <c r="A197" t="s">
+        <v>409</v>
+      </c>
+      <c r="B197" t="s">
+        <v>52</v>
+      </c>
+      <c r="C197" t="s">
+        <v>53</v>
+      </c>
+      <c r="D197" t="s">
+        <v>183</v>
+      </c>
+      <c r="E197" t="s">
+        <v>407</v>
+      </c>
+      <c r="G197" t="s">
+        <v>410</v>
+      </c>
+      <c r="H197" t="s">
+        <v>47</v>
+      </c>
+      <c r="I197" t="s">
+        <v>411</v>
+      </c>
+      <c r="J197" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
+      <c r="A198" t="s">
+        <v>412</v>
+      </c>
+      <c r="B198" t="s">
+        <v>52</v>
+      </c>
+      <c r="C198" t="s">
+        <v>53</v>
+      </c>
+      <c r="D198" t="s">
+        <v>168</v>
+      </c>
+      <c r="E198" t="s">
+        <v>407</v>
+      </c>
+      <c r="G198" t="s">
+        <v>413</v>
+      </c>
+      <c r="H198" t="s">
+        <v>47</v>
+      </c>
+      <c r="I198" t="s">
+        <v>414</v>
+      </c>
+      <c r="J198" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10">
+      <c r="A199" t="s">
+        <v>415</v>
+      </c>
+      <c r="B199" t="s">
+        <v>11</v>
+      </c>
+      <c r="C199" t="s">
+        <v>12</v>
+      </c>
+      <c r="D199" t="s">
+        <v>19</v>
+      </c>
+      <c r="E199" t="s">
+        <v>407</v>
+      </c>
+      <c r="G199" t="s">
+        <v>416</v>
+      </c>
+      <c r="H199" t="s">
+        <v>16</v>
+      </c>
+      <c r="I199" t="s">
+        <v>17</v>
+      </c>
+      <c r="J199" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:J9"/>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
@@ -1926,7 +7499,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1945,67 +7518,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B1" s="2" t="n"/>
-      <c r="C1" s="2" t="n"/>
-      <c r="D1" s="2" t="n"/>
-      <c r="E1" s="2" t="n"/>
-      <c r="F1" s="2" t="n"/>
-      <c r="G1" s="2" t="n"/>
-      <c r="H1" s="2" t="n"/>
+      <c r="A1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>117</v>
+      <c r="A2" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="n">
-        <v>38</v>
+        <v>198</v>
       </c>
       <c r="B3" t="n">
-        <v>38</v>
+        <v>198</v>
       </c>
       <c r="C3" t="n">
-        <v>38</v>
+        <v>198</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>118</v>
+        <v>425</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2014,4 +7599,588 @@
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>430</v>
+      </c>
+      <c r="E2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>431</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>432</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>433</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>434</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>434</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>433</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>433</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>433</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>302</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>433</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>218</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>435</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>433</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>433</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>388</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>433</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>433</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E9"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>430</v>
+      </c>
+      <c r="E2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>431</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>432</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>433</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>434</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>434</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>433</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>433</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>433</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>302</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>433</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>218</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>435</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>433</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>433</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>388</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>433</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>433</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E9"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>
--- a/Relatorio/Relatorio_InternoVsExterno.xlsx
+++ b/Relatorio/Relatorio_InternoVsExterno.xlsx
@@ -2,27 +2,60 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9885" windowWidth="24000" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Dados" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Informações" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Junção" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Junção1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Junção2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Junção3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Junção4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Junção5" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Junção6" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Junção7" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Junção8" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Junção9" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Junção10" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Junção11" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Junção12" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Junção13" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Junção14" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Junção15" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Junção16" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Junção17" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Junção18" sheetId="21" state="visible" r:id="rId21"/>
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Dados!$A$1:$J$9</definedName>
     <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">Junção!$A$1:$E$9</definedName>
     <definedName hidden="1" localSheetId="3" name="_xlnm._FilterDatabase">Junção1!$A$1:$E$9</definedName>
+    <definedName hidden="1" localSheetId="4" name="_xlnm._FilterDatabase">Junção2!$A$1:$E$9</definedName>
+    <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">Junção3!$A$1:$E$9</definedName>
+    <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">Junção4!$A$1:$E$9</definedName>
+    <definedName hidden="1" localSheetId="7" name="_xlnm._FilterDatabase">Junção5!$A$1:$E$9</definedName>
+    <definedName hidden="1" localSheetId="8" name="_xlnm._FilterDatabase">Junção6!$A$1:$E$9</definedName>
+    <definedName hidden="1" localSheetId="9" name="_xlnm._FilterDatabase">Junção7!$A$1:$E$9</definedName>
+    <definedName hidden="1" localSheetId="10" name="_xlnm._FilterDatabase">Junção8!$A$1:$E$9</definedName>
+    <definedName hidden="1" localSheetId="11" name="_xlnm._FilterDatabase">Junção9!$A$1:$E$9</definedName>
+    <definedName hidden="1" localSheetId="12" name="_xlnm._FilterDatabase">Junção10!$A$1:$E$9</definedName>
+    <definedName hidden="1" localSheetId="13" name="_xlnm._FilterDatabase">Junção11!$A$1:$E$9</definedName>
+    <definedName hidden="1" localSheetId="14" name="_xlnm._FilterDatabase">Junção12!$A$1:$E$9</definedName>
+    <definedName hidden="1" localSheetId="15" name="_xlnm._FilterDatabase">Junção13!$A$1:$E$9</definedName>
+    <definedName hidden="1" localSheetId="16" name="_xlnm._FilterDatabase">Junção14!$A$1:$E$9</definedName>
+    <definedName hidden="1" localSheetId="17" name="_xlnm._FilterDatabase">Junção15!$A$1:$E$9</definedName>
+    <definedName hidden="1" localSheetId="18" name="_xlnm._FilterDatabase">Junção16!$A$1:$E$9</definedName>
+    <definedName hidden="1" localSheetId="19" name="_xlnm._FilterDatabase">Junção17!$A$1:$E$9</definedName>
+    <definedName hidden="1" localSheetId="20" name="_xlnm._FilterDatabase">Junção18!$A$1:$E$9</definedName>
   </definedNames>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="440">
   <si>
     <t>Solicitações</t>
   </si>
@@ -1300,6 +1333,18 @@
   </si>
   <si>
     <t>24 %</t>
+  </si>
+  <si>
+    <t>Técnicos Civis</t>
+  </si>
+  <si>
+    <t>Técnicos Elétrica</t>
+  </si>
+  <si>
+    <t>Técnicos Mecânica</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
   <si>
     <t>Total de chamados</t>
@@ -1337,7 +1382,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="10">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1346,10 +1391,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="FFC65911"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="FFC65911"/>
+      <sz val="11"/>
+    </font>
+    <font>
       <color rgb="00FFFFFF"/>
     </font>
+    <font>
+      <color rgb="00c65911"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill/>
     </fill>
@@ -1358,23 +1444,92 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF010204"/>
+        <bgColor rgb="FF010204"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2FE13"/>
+        <bgColor rgb="FFE2C813"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF010204"/>
+        <bgColor rgb="FF010204"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF010204"/>
+        <bgColor rgb="FF010204"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF010204"/>
+        <bgColor rgb="FF010204"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00010204"/>
         <bgColor rgb="00010204"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00e2fe13"/>
-        <bgColor rgb="00e2c813"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1388,17 +1543,26 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="4" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
@@ -1701,16 +1865,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="12"/>
-    <col customWidth="1" max="2" min="2" width="9"/>
-    <col customWidth="1" max="3" min="3" width="26"/>
-    <col customWidth="1" max="4" min="4" width="42"/>
-    <col customWidth="1" max="5" min="5" width="10"/>
-    <col customWidth="1" max="6" min="6" width="3"/>
-    <col customWidth="1" max="7" min="7" width="58"/>
-    <col customWidth="1" max="8" min="8" width="6"/>
-    <col customWidth="1" max="9" min="9" width="13"/>
-    <col customWidth="1" max="10" min="10" width="16"/>
+    <col customWidth="1" max="1" min="1" style="11" width="12"/>
+    <col customWidth="1" max="2" min="2" style="11" width="9"/>
+    <col customWidth="1" max="3" min="3" style="11" width="26"/>
+    <col customWidth="1" max="4" min="4" style="11" width="42"/>
+    <col customWidth="1" max="5" min="5" style="11" width="10"/>
+    <col customWidth="1" max="6" min="6" style="11" width="3"/>
+    <col customWidth="1" max="7" min="7" style="11" width="58"/>
+    <col customWidth="1" max="8" min="8" style="11" width="6"/>
+    <col customWidth="1" max="9" min="9" style="11" width="13"/>
+    <col customWidth="1" max="10" min="10" style="11" width="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -7489,6 +7653,2926 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:J9"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>434</v>
+      </c>
+      <c r="E2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>435</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>436</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>437</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>438</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>438</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>437</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>437</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>302</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>437</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>218</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>439</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>437</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>437</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>388</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>437</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>437</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E9"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>434</v>
+      </c>
+      <c r="E2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>435</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>436</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>437</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>438</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>438</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>437</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>437</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>302</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>437</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>218</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>439</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>437</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>437</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>388</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>437</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>437</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E9"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>434</v>
+      </c>
+      <c r="E2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>435</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>436</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>437</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>438</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>438</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>437</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>437</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>302</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>437</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>218</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>439</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>437</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>437</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>388</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>437</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>437</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E9"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>434</v>
+      </c>
+      <c r="E2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>435</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>436</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>437</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>438</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>438</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>437</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>437</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>302</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>437</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>218</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>439</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>437</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>437</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>388</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>437</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>437</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E9"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>434</v>
+      </c>
+      <c r="E2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>435</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>436</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>437</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>438</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>438</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>437</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>437</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>302</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>437</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>218</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>439</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>437</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>437</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>388</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>437</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>437</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E9"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>434</v>
+      </c>
+      <c r="E2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>435</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>436</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>437</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>438</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>438</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>437</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>437</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>302</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>437</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>218</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>439</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>437</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>437</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>388</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>437</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>437</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E9"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>434</v>
+      </c>
+      <c r="E2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>435</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>436</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>437</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>438</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>438</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>437</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>437</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>302</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>437</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>218</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>439</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>437</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>437</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>388</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>437</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>437</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E9"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>434</v>
+      </c>
+      <c r="E2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>435</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>436</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>437</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>438</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>438</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>437</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>437</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>302</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>437</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>218</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>439</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>437</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>437</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>388</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>437</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>437</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E9"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>434</v>
+      </c>
+      <c r="E2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>435</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>436</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>437</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>438</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>438</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>437</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>437</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>302</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>437</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>218</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>439</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>437</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>437</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>388</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>437</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>437</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E9"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>434</v>
+      </c>
+      <c r="E2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>435</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>436</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>437</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>438</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>438</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>437</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>437</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>302</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>437</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>218</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>439</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>437</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>437</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>388</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>437</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>437</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E9"/>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
@@ -7499,104 +10583,783 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="11" width="7.7109375"/>
+    <col customWidth="1" max="2" min="2" style="11" width="12"/>
+    <col customWidth="1" max="3" min="3" style="11" width="19"/>
+    <col customWidth="1" max="4" min="4" style="11" width="33"/>
+    <col customWidth="1" max="5" min="5" style="11" width="25"/>
+    <col customWidth="1" max="6" min="6" style="11" width="27"/>
+    <col customWidth="1" max="7" min="7" style="11" width="25"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="11" width="11.42578125"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="n">
+        <v>198</v>
+      </c>
+      <c r="B3" t="n">
+        <v>198</v>
+      </c>
+      <c r="C3" t="n">
+        <v>198</v>
+      </c>
+      <c r="D3" t="n">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>425</v>
+      </c>
+      <c r="F3" t="n">
+        <v>32</v>
+      </c>
+      <c r="G3" t="n">
+        <v>16</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="B7" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="12" t="n">
+        <v>8</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B8" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="E8" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="H8" s="12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="B9" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="E9" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="E10" s="12" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" s="3" t="n"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="B13" s="12" t="n">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" width="6"/>
-    <col customWidth="1" max="2" min="2" width="12"/>
-    <col customWidth="1" max="3" min="3" width="19"/>
-    <col customWidth="1" max="4" min="4" width="33"/>
-    <col customWidth="1" max="5" min="5" width="25"/>
-    <col customWidth="1" max="6" min="6" width="27"/>
-    <col customWidth="1" max="7" min="7" width="25"/>
-    <col customWidth="1" max="8" min="8" width="10"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>434</v>
+      </c>
+      <c r="E2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>435</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>436</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>437</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>438</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>438</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>437</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>437</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>302</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>437</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>218</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>439</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>437</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
         <v>59</v>
       </c>
-      <c r="B1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="n">
-        <v>198</v>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>437</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>388</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>437</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>437</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E9"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>430</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>434</v>
+      </c>
+      <c r="E2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>124</v>
       </c>
       <c r="B3" t="n">
-        <v>198</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>198</v>
-      </c>
-      <c r="D3" t="n">
-        <v>48</v>
-      </c>
-      <c r="E3" t="s">
-        <v>425</v>
-      </c>
-      <c r="F3" t="n">
-        <v>32</v>
-      </c>
-      <c r="G3" t="n">
-        <v>16</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>435</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>436</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>437</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>438</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
+      <c r="D7" t="s">
+        <v>438</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>437</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>437</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>302</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>437</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
         <v>218</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B12" t="n">
         <v>3</v>
       </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>439</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>437</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>437</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>388</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>437</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>437</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
+  <autoFilter ref="A1:E9"/>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
@@ -7620,16 +11383,16 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -7643,7 +11406,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -7660,7 +11423,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -7677,7 +11440,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -7694,7 +11457,7 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -7711,7 +11474,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -7728,7 +11491,7 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="E7" t="n">
         <v>3</v>
@@ -7745,7 +11508,7 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -7762,7 +11525,7 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -7779,7 +11542,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -7796,7 +11559,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -7813,7 +11576,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="E12" t="n">
         <v>2</v>
@@ -7830,7 +11593,7 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -7847,7 +11610,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -7864,7 +11627,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -7881,7 +11644,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -7912,16 +11675,16 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -7935,7 +11698,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -7952,7 +11715,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -7969,7 +11732,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -7986,7 +11749,7 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -8003,7 +11766,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -8020,7 +11783,7 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="E7" t="n">
         <v>3</v>
@@ -8037,7 +11800,7 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -8054,7 +11817,7 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -8071,7 +11834,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -8088,7 +11851,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -8105,7 +11868,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="E12" t="n">
         <v>2</v>
@@ -8122,7 +11885,7 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -8139,7 +11902,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -8156,7 +11919,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -8173,7 +11936,1467 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
+        <v>437</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E9"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>433</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>434</v>
+      </c>
+      <c r="E2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>435</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>436</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>437</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>438</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>438</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>437</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>437</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>302</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>437</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>218</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>439</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>437</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>437</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>388</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>437</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>437</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E9"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>434</v>
+      </c>
+      <c r="E2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>435</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>436</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>437</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>438</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>438</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>437</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>437</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>302</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>437</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>218</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>439</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>437</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>437</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>388</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>437</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>437</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E9"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>434</v>
+      </c>
+      <c r="E2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>435</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>436</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>437</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>438</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>438</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>437</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>437</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>302</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>437</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>218</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>439</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>437</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>437</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>388</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>437</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>437</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E9"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>434</v>
+      </c>
+      <c r="E2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>435</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>436</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>437</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>438</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>438</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>437</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>437</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>302</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>437</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>218</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>439</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>437</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>437</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>388</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>437</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>437</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E9"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>434</v>
+      </c>
+      <c r="E2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>435</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>436</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>437</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>438</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>438</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>437</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>437</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>302</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>437</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>218</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>439</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>437</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>437</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>388</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>437</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>437</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
